--- a/files/separadas/repeat_p32.xlsx
+++ b/files/separadas/repeat_p32.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="692">
   <si>
     <t>p32_cod</t>
   </si>
@@ -59,18 +59,6 @@
   </si>
   <si>
     <t>_submission__tags</t>
-  </si>
-  <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>c3</t>
-  </si>
-  <si>
-    <t>nota_iniciativa</t>
   </si>
   <si>
     <t>7518</t>
@@ -2637,13 +2625,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S170"/>
+  <dimension ref="A1:O170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2689,37 +2677,25 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -2728,45 +2704,33 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="J2" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="M2" t="s">
-        <v>694</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2775,45 +2739,33 @@
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="J3" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="M3" t="s">
-        <v>694</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D4" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -2822,45 +2774,33 @@
         <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="J4" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="M4" t="s">
-        <v>694</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D5" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2869,45 +2809,33 @@
         <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="J5" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="M5" t="s">
-        <v>694</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D6" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2916,45 +2844,33 @@
         <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="J6" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="M6" t="s">
-        <v>694</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -2963,45 +2879,33 @@
         <v>9</v>
       </c>
       <c r="I7" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="J7" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="M7" t="s">
-        <v>694</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C8" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D8" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -3010,45 +2914,33 @@
         <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="J8" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="M8" t="s">
-        <v>694</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C9" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D9" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -3057,45 +2949,33 @@
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="J9" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M9" t="s">
-        <v>694</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C10" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D10" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -3104,45 +2984,33 @@
         <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="J10" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M10" t="s">
-        <v>694</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C11" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D11" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -3151,45 +3019,33 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="J11" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M11" t="s">
-        <v>694</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C12" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D12" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -3198,45 +3054,33 @@
         <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="J12" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M12" t="s">
-        <v>694</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C13" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D13" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -3245,45 +3089,33 @@
         <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="J13" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M13" t="s">
-        <v>694</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D14" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G14">
         <v>6</v>
@@ -3292,45 +3124,33 @@
         <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="J14" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="M14" t="s">
-        <v>694</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C15" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D15" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G15">
         <v>6</v>
@@ -3339,45 +3159,33 @@
         <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="J15" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="M15" t="s">
-        <v>694</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C16" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D16" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G16">
         <v>6</v>
@@ -3386,45 +3194,33 @@
         <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="J16" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="M16" t="s">
-        <v>694</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D17" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G17">
         <v>7</v>
@@ -3433,45 +3229,33 @@
         <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="J17" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="M17" t="s">
-        <v>694</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C18" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D18" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G18">
         <v>9</v>
@@ -3480,45 +3264,33 @@
         <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="J18" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="M18" t="s">
-        <v>694</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C19" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D19" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G19">
         <v>10</v>
@@ -3527,45 +3299,33 @@
         <v>16</v>
       </c>
       <c r="I19" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="J19" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="M19" t="s">
-        <v>694</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C20" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D20" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G20">
         <v>11</v>
@@ -3574,45 +3334,33 @@
         <v>17</v>
       </c>
       <c r="I20" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="J20" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M20" t="s">
-        <v>694</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C21" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D21" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G21">
         <v>11</v>
@@ -3621,45 +3369,33 @@
         <v>17</v>
       </c>
       <c r="I21" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="J21" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M21" t="s">
-        <v>694</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C22" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D22" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G22">
         <v>11</v>
@@ -3668,45 +3404,33 @@
         <v>17</v>
       </c>
       <c r="I22" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="J22" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M22" t="s">
-        <v>694</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C23" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D23" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G23">
         <v>11</v>
@@ -3715,45 +3439,33 @@
         <v>17</v>
       </c>
       <c r="I23" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="J23" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M23" t="s">
-        <v>694</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C24" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D24" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G24">
         <v>11</v>
@@ -3762,45 +3474,33 @@
         <v>17</v>
       </c>
       <c r="I24" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="J24" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M24" t="s">
-        <v>694</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C25" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D25" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G25">
         <v>12</v>
@@ -3809,45 +3509,33 @@
         <v>18</v>
       </c>
       <c r="I25" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="J25" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="M25" t="s">
-        <v>694</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C26" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D26" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G26">
         <v>12</v>
@@ -3856,45 +3544,33 @@
         <v>18</v>
       </c>
       <c r="I26" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="J26" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="M26" t="s">
-        <v>694</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C27" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D27" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G27">
         <v>12</v>
@@ -3903,45 +3579,33 @@
         <v>18</v>
       </c>
       <c r="I27" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="J27" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="M27" t="s">
-        <v>694</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C28" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D28" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G28">
         <v>13</v>
@@ -3950,45 +3614,33 @@
         <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="J28" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="M28" t="s">
-        <v>695</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C29" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D29" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G29">
         <v>13</v>
@@ -3997,45 +3649,33 @@
         <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="J29" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="M29" t="s">
-        <v>695</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C30" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D30" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G30">
         <v>14</v>
@@ -4044,45 +3684,33 @@
         <v>21</v>
       </c>
       <c r="I30" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="J30" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M30" t="s">
-        <v>694</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C31" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D31" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G31">
         <v>14</v>
@@ -4091,45 +3719,33 @@
         <v>21</v>
       </c>
       <c r="I31" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="J31" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M31" t="s">
-        <v>694</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C32" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D32" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G32">
         <v>14</v>
@@ -4138,45 +3754,33 @@
         <v>21</v>
       </c>
       <c r="I32" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="J32" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M32" t="s">
-        <v>694</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D33" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G33">
         <v>14</v>
@@ -4185,45 +3789,33 @@
         <v>21</v>
       </c>
       <c r="I33" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="J33" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M33" t="s">
-        <v>694</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C34" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D34" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G34">
         <v>15</v>
@@ -4232,45 +3824,33 @@
         <v>22</v>
       </c>
       <c r="I34" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="J34" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M34" t="s">
-        <v>695</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C35" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D35" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G35">
         <v>15</v>
@@ -4279,45 +3859,33 @@
         <v>22</v>
       </c>
       <c r="I35" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="J35" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M35" t="s">
-        <v>695</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C36" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D36" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G36">
         <v>16</v>
@@ -4326,45 +3894,33 @@
         <v>25</v>
       </c>
       <c r="I36" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="J36" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="M36" t="s">
-        <v>694</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C37" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D37" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G37">
         <v>16</v>
@@ -4373,45 +3929,33 @@
         <v>25</v>
       </c>
       <c r="I37" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="J37" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="M37" t="s">
-        <v>694</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C38" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D38" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G38">
         <v>16</v>
@@ -4420,45 +3964,33 @@
         <v>25</v>
       </c>
       <c r="I38" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="J38" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="M38" t="s">
-        <v>694</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C39" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D39" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G39">
         <v>17</v>
@@ -4467,45 +3999,33 @@
         <v>26</v>
       </c>
       <c r="I39" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="J39" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="M39" t="s">
-        <v>694</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C40" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D40" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G40">
         <v>18</v>
@@ -4514,45 +4034,33 @@
         <v>27</v>
       </c>
       <c r="I40" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="J40" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="M40" t="s">
-        <v>694</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D41" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G41">
         <v>19</v>
@@ -4561,45 +4069,33 @@
         <v>30</v>
       </c>
       <c r="I41" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="J41" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="M41" t="s">
-        <v>694</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C42" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D42" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G42">
         <v>19</v>
@@ -4608,45 +4104,33 @@
         <v>30</v>
       </c>
       <c r="I42" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="J42" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="M42" t="s">
-        <v>694</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D43" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G43">
         <v>19</v>
@@ -4655,45 +4139,33 @@
         <v>30</v>
       </c>
       <c r="I43" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="J43" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="M43" t="s">
-        <v>694</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D44" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G44">
         <v>19</v>
@@ -4702,45 +4174,33 @@
         <v>30</v>
       </c>
       <c r="I44" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="J44" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="M44" t="s">
-        <v>694</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C45" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D45" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G45">
         <v>20</v>
@@ -4749,45 +4209,33 @@
         <v>33</v>
       </c>
       <c r="I45" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="J45" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="M45" t="s">
-        <v>694</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C46" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D46" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G46">
         <v>20</v>
@@ -4796,45 +4244,33 @@
         <v>33</v>
       </c>
       <c r="I46" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="J46" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="M46" t="s">
-        <v>694</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C47" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D47" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G47">
         <v>20</v>
@@ -4843,45 +4279,33 @@
         <v>33</v>
       </c>
       <c r="I47" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="J47" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="M47" t="s">
-        <v>694</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C48" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D48" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G48">
         <v>20</v>
@@ -4890,45 +4314,33 @@
         <v>33</v>
       </c>
       <c r="I48" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="J48" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="M48" t="s">
-        <v>694</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C49" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D49" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G49">
         <v>21</v>
@@ -4937,45 +4349,33 @@
         <v>34</v>
       </c>
       <c r="I49" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="J49" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="M49" t="s">
-        <v>694</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C50" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D50" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G50">
         <v>21</v>
@@ -4984,45 +4384,33 @@
         <v>34</v>
       </c>
       <c r="I50" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="J50" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="M50" t="s">
-        <v>694</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C51" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D51" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G51">
         <v>21</v>
@@ -5031,45 +4419,33 @@
         <v>34</v>
       </c>
       <c r="I51" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="J51" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="M51" t="s">
-        <v>694</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C52" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D52" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G52">
         <v>22</v>
@@ -5078,45 +4454,33 @@
         <v>37</v>
       </c>
       <c r="I52" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="J52" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M52" t="s">
-        <v>694</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C53" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D53" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G53">
         <v>22</v>
@@ -5125,45 +4489,33 @@
         <v>37</v>
       </c>
       <c r="I53" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="J53" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M53" t="s">
-        <v>694</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C54" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D54" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G54">
         <v>22</v>
@@ -5172,45 +4524,33 @@
         <v>37</v>
       </c>
       <c r="I54" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="J54" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M54" t="s">
-        <v>694</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C55" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D55" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G55">
         <v>23</v>
@@ -5219,45 +4559,33 @@
         <v>38</v>
       </c>
       <c r="I55" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="J55" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M55" t="s">
-        <v>694</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C56" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D56" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G56">
         <v>23</v>
@@ -5266,45 +4594,33 @@
         <v>38</v>
       </c>
       <c r="I56" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="J56" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M56" t="s">
-        <v>694</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C57" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D57" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G57">
         <v>24</v>
@@ -5313,45 +4629,33 @@
         <v>51</v>
       </c>
       <c r="I57" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="J57" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M57" t="s">
-        <v>695</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C58" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D58" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G58">
         <v>24</v>
@@ -5360,45 +4664,33 @@
         <v>51</v>
       </c>
       <c r="I58" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="J58" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M58" t="s">
-        <v>695</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C59" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D59" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G59">
         <v>24</v>
@@ -5407,45 +4699,33 @@
         <v>51</v>
       </c>
       <c r="I59" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="J59" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M59" t="s">
-        <v>695</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C60" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D60" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G60">
         <v>24</v>
@@ -5454,45 +4734,33 @@
         <v>51</v>
       </c>
       <c r="I60" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="J60" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M60" t="s">
-        <v>695</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C61" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D61" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G61">
         <v>26</v>
@@ -5501,45 +4769,33 @@
         <v>55</v>
       </c>
       <c r="I61" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="J61" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="M61" t="s">
-        <v>694</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C62" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D62" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G62">
         <v>27</v>
@@ -5548,45 +4804,33 @@
         <v>56</v>
       </c>
       <c r="I62" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="J62" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="M62" t="s">
-        <v>694</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
-      <c r="S62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C63" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D63" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G63">
         <v>28</v>
@@ -5595,45 +4839,33 @@
         <v>57</v>
       </c>
       <c r="I63" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="J63" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="M63" t="s">
-        <v>694</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C64" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D64" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G64">
         <v>29</v>
@@ -5642,45 +4874,33 @@
         <v>58</v>
       </c>
       <c r="I64" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="J64" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M64" t="s">
-        <v>694</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
-      <c r="S64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C65" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D65" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G65">
         <v>29</v>
@@ -5689,45 +4909,33 @@
         <v>58</v>
       </c>
       <c r="I65" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="J65" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M65" t="s">
-        <v>694</v>
-      </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C66" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D66" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G66">
         <v>29</v>
@@ -5736,45 +4944,33 @@
         <v>58</v>
       </c>
       <c r="I66" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="J66" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M66" t="s">
-        <v>694</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B67" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C67" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D67" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G67">
         <v>29</v>
@@ -5783,45 +4979,33 @@
         <v>58</v>
       </c>
       <c r="I67" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="J67" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M67" t="s">
-        <v>694</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67">
-        <v>0</v>
-      </c>
-      <c r="S67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B68" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C68" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D68" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G68">
         <v>29</v>
@@ -5830,45 +5014,33 @@
         <v>58</v>
       </c>
       <c r="I68" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="J68" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M68" t="s">
-        <v>694</v>
-      </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
-      <c r="S68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C69" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D69" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E69">
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G69">
         <v>30</v>
@@ -5877,45 +5049,33 @@
         <v>59</v>
       </c>
       <c r="I69" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="J69" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M69" t="s">
-        <v>694</v>
-      </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
-      <c r="R69">
-        <v>0</v>
-      </c>
-      <c r="S69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B70" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C70" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D70" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="E70">
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G70">
         <v>30</v>
@@ -5924,45 +5084,33 @@
         <v>59</v>
       </c>
       <c r="I70" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="J70" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M70" t="s">
-        <v>694</v>
-      </c>
-      <c r="P70">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-      <c r="R70">
-        <v>0</v>
-      </c>
-      <c r="S70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B71" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C71" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D71" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E71">
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G71">
         <v>30</v>
@@ -5971,45 +5119,33 @@
         <v>59</v>
       </c>
       <c r="I71" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="J71" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M71" t="s">
-        <v>694</v>
-      </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="R71">
-        <v>0</v>
-      </c>
-      <c r="S71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B72" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C72" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D72" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E72">
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G72">
         <v>30</v>
@@ -6018,45 +5154,33 @@
         <v>59</v>
       </c>
       <c r="I72" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="J72" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M72" t="s">
-        <v>694</v>
-      </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
-      <c r="S72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B73" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C73" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D73" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E73">
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G73">
         <v>30</v>
@@ -6065,45 +5189,33 @@
         <v>59</v>
       </c>
       <c r="I73" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="J73" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M73" t="s">
-        <v>694</v>
-      </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
-      <c r="S73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B74" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C74" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D74" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E74">
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G74">
         <v>30</v>
@@ -6112,45 +5224,33 @@
         <v>59</v>
       </c>
       <c r="I74" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="J74" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M74" t="s">
-        <v>694</v>
-      </c>
-      <c r="P74">
-        <v>0</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74">
-        <v>0</v>
-      </c>
-      <c r="S74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B75" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C75" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D75" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E75">
         <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G75">
         <v>30</v>
@@ -6159,45 +5259,33 @@
         <v>59</v>
       </c>
       <c r="I75" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="J75" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M75" t="s">
-        <v>694</v>
-      </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75">
-        <v>0</v>
-      </c>
-      <c r="S75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B76" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C76" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D76" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E76">
         <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G76">
         <v>30</v>
@@ -6206,45 +5294,33 @@
         <v>59</v>
       </c>
       <c r="I76" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="J76" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M76" t="s">
-        <v>694</v>
-      </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76">
-        <v>0</v>
-      </c>
-      <c r="S76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B77" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C77" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D77" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E77">
         <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G77">
         <v>30</v>
@@ -6253,45 +5329,33 @@
         <v>59</v>
       </c>
       <c r="I77" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="J77" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M77" t="s">
-        <v>694</v>
-      </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>0</v>
-      </c>
-      <c r="S77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B78" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C78" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D78" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E78">
         <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G78">
         <v>30</v>
@@ -6300,45 +5364,33 @@
         <v>59</v>
       </c>
       <c r="I78" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="J78" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M78" t="s">
-        <v>694</v>
-      </c>
-      <c r="P78">
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="R78">
-        <v>0</v>
-      </c>
-      <c r="S78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B79" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C79" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D79" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E79">
         <v>78</v>
       </c>
       <c r="F79" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G79">
         <v>30</v>
@@ -6347,45 +5399,33 @@
         <v>59</v>
       </c>
       <c r="I79" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="J79" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M79" t="s">
-        <v>694</v>
-      </c>
-      <c r="P79">
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <v>0</v>
-      </c>
-      <c r="R79">
-        <v>0</v>
-      </c>
-      <c r="S79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B80" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C80" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D80" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E80">
         <v>79</v>
       </c>
       <c r="F80" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G80">
         <v>30</v>
@@ -6394,45 +5434,33 @@
         <v>59</v>
       </c>
       <c r="I80" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="J80" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M80" t="s">
-        <v>694</v>
-      </c>
-      <c r="P80">
-        <v>0</v>
-      </c>
-      <c r="Q80">
-        <v>0</v>
-      </c>
-      <c r="R80">
-        <v>0</v>
-      </c>
-      <c r="S80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B81" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C81" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D81" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E81">
         <v>80</v>
       </c>
       <c r="F81" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G81">
         <v>31</v>
@@ -6441,45 +5469,33 @@
         <v>60</v>
       </c>
       <c r="I81" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="J81" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="M81" t="s">
-        <v>694</v>
-      </c>
-      <c r="P81">
-        <v>0</v>
-      </c>
-      <c r="Q81">
-        <v>0</v>
-      </c>
-      <c r="R81">
-        <v>0</v>
-      </c>
-      <c r="S81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B82" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C82" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D82" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E82">
         <v>81</v>
       </c>
       <c r="F82" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G82">
         <v>31</v>
@@ -6488,45 +5504,33 @@
         <v>60</v>
       </c>
       <c r="I82" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="J82" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="M82" t="s">
-        <v>694</v>
-      </c>
-      <c r="P82">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>0</v>
-      </c>
-      <c r="R82">
-        <v>0</v>
-      </c>
-      <c r="S82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B83" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C83" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D83" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E83">
         <v>82</v>
       </c>
       <c r="F83" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G83">
         <v>32</v>
@@ -6535,45 +5539,33 @@
         <v>61</v>
       </c>
       <c r="I83" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="J83" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M83" t="s">
-        <v>694</v>
-      </c>
-      <c r="P83">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>0</v>
-      </c>
-      <c r="R83">
-        <v>0</v>
-      </c>
-      <c r="S83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B84" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C84" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D84" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E84">
         <v>83</v>
       </c>
       <c r="F84" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G84">
         <v>33</v>
@@ -6582,45 +5574,33 @@
         <v>63</v>
       </c>
       <c r="I84" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="J84" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M84" t="s">
-        <v>694</v>
-      </c>
-      <c r="P84">
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <v>0</v>
-      </c>
-      <c r="R84">
-        <v>0</v>
-      </c>
-      <c r="S84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B85" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C85" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D85" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E85">
         <v>84</v>
       </c>
       <c r="F85" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G85">
         <v>33</v>
@@ -6629,45 +5609,33 @@
         <v>63</v>
       </c>
       <c r="I85" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="J85" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M85" t="s">
-        <v>694</v>
-      </c>
-      <c r="P85">
-        <v>0</v>
-      </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="R85">
-        <v>0</v>
-      </c>
-      <c r="S85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B86" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C86" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D86" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E86">
         <v>85</v>
       </c>
       <c r="F86" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G86">
         <v>33</v>
@@ -6676,45 +5644,33 @@
         <v>63</v>
       </c>
       <c r="I86" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="J86" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M86" t="s">
-        <v>694</v>
-      </c>
-      <c r="P86">
-        <v>0</v>
-      </c>
-      <c r="Q86">
-        <v>0</v>
-      </c>
-      <c r="R86">
-        <v>0</v>
-      </c>
-      <c r="S86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B87" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C87" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D87" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E87">
         <v>86</v>
       </c>
       <c r="F87" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G87">
         <v>33</v>
@@ -6723,45 +5679,33 @@
         <v>63</v>
       </c>
       <c r="I87" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="J87" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M87" t="s">
-        <v>694</v>
-      </c>
-      <c r="P87">
-        <v>0</v>
-      </c>
-      <c r="Q87">
-        <v>0</v>
-      </c>
-      <c r="R87">
-        <v>0</v>
-      </c>
-      <c r="S87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B88" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C88" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D88" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G88">
         <v>33</v>
@@ -6770,45 +5714,33 @@
         <v>63</v>
       </c>
       <c r="I88" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="J88" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M88" t="s">
-        <v>694</v>
-      </c>
-      <c r="P88">
-        <v>0</v>
-      </c>
-      <c r="Q88">
-        <v>0</v>
-      </c>
-      <c r="R88">
-        <v>0</v>
-      </c>
-      <c r="S88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B89" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C89" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D89" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="E89">
         <v>88</v>
       </c>
       <c r="F89" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G89">
         <v>33</v>
@@ -6817,45 +5749,33 @@
         <v>63</v>
       </c>
       <c r="I89" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="J89" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M89" t="s">
-        <v>694</v>
-      </c>
-      <c r="P89">
-        <v>0</v>
-      </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-      <c r="R89">
-        <v>0</v>
-      </c>
-      <c r="S89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B90" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C90" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D90" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E90">
         <v>89</v>
       </c>
       <c r="F90" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G90">
         <v>33</v>
@@ -6864,45 +5784,33 @@
         <v>63</v>
       </c>
       <c r="I90" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="J90" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M90" t="s">
-        <v>694</v>
-      </c>
-      <c r="P90">
-        <v>0</v>
-      </c>
-      <c r="Q90">
-        <v>0</v>
-      </c>
-      <c r="R90">
-        <v>0</v>
-      </c>
-      <c r="S90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B91" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C91" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D91" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E91">
         <v>90</v>
       </c>
       <c r="F91" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G91">
         <v>33</v>
@@ -6911,45 +5819,33 @@
         <v>63</v>
       </c>
       <c r="I91" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="J91" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M91" t="s">
-        <v>694</v>
-      </c>
-      <c r="P91">
-        <v>0</v>
-      </c>
-      <c r="Q91">
-        <v>0</v>
-      </c>
-      <c r="R91">
-        <v>0</v>
-      </c>
-      <c r="S91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B92" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C92" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D92" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="E92">
         <v>91</v>
       </c>
       <c r="F92" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G92">
         <v>33</v>
@@ -6958,45 +5854,33 @@
         <v>63</v>
       </c>
       <c r="I92" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="J92" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M92" t="s">
-        <v>694</v>
-      </c>
-      <c r="P92">
-        <v>0</v>
-      </c>
-      <c r="Q92">
-        <v>0</v>
-      </c>
-      <c r="R92">
-        <v>0</v>
-      </c>
-      <c r="S92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B93" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C93" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D93" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="E93">
         <v>92</v>
       </c>
       <c r="F93" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G93">
         <v>33</v>
@@ -7005,45 +5889,33 @@
         <v>63</v>
       </c>
       <c r="I93" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="J93" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M93" t="s">
-        <v>694</v>
-      </c>
-      <c r="P93">
-        <v>0</v>
-      </c>
-      <c r="Q93">
-        <v>0</v>
-      </c>
-      <c r="R93">
-        <v>0</v>
-      </c>
-      <c r="S93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B94" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C94" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D94" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E94">
         <v>93</v>
       </c>
       <c r="F94" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G94">
         <v>33</v>
@@ -7052,45 +5924,33 @@
         <v>63</v>
       </c>
       <c r="I94" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="J94" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M94" t="s">
-        <v>694</v>
-      </c>
-      <c r="P94">
-        <v>0</v>
-      </c>
-      <c r="Q94">
-        <v>0</v>
-      </c>
-      <c r="R94">
-        <v>0</v>
-      </c>
-      <c r="S94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B95" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C95" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D95" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E95">
         <v>94</v>
       </c>
       <c r="F95" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G95">
         <v>33</v>
@@ -7099,45 +5959,33 @@
         <v>63</v>
       </c>
       <c r="I95" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="J95" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M95" t="s">
-        <v>694</v>
-      </c>
-      <c r="P95">
-        <v>0</v>
-      </c>
-      <c r="Q95">
-        <v>0</v>
-      </c>
-      <c r="R95">
-        <v>0</v>
-      </c>
-      <c r="S95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B96" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C96" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D96" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E96">
         <v>95</v>
       </c>
       <c r="F96" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G96">
         <v>33</v>
@@ -7146,45 +5994,33 @@
         <v>63</v>
       </c>
       <c r="I96" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="J96" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M96" t="s">
-        <v>694</v>
-      </c>
-      <c r="P96">
-        <v>0</v>
-      </c>
-      <c r="Q96">
-        <v>0</v>
-      </c>
-      <c r="R96">
-        <v>0</v>
-      </c>
-      <c r="S96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B97" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C97" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D97" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="E97">
         <v>96</v>
       </c>
       <c r="F97" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G97">
         <v>34</v>
@@ -7193,45 +6029,33 @@
         <v>64</v>
       </c>
       <c r="I97" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="J97" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="M97" t="s">
-        <v>694</v>
-      </c>
-      <c r="P97">
-        <v>0</v>
-      </c>
-      <c r="Q97">
-        <v>0</v>
-      </c>
-      <c r="R97">
-        <v>0</v>
-      </c>
-      <c r="S97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B98" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C98" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D98" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="E98">
         <v>97</v>
       </c>
       <c r="F98" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G98">
         <v>35</v>
@@ -7240,45 +6064,33 @@
         <v>75</v>
       </c>
       <c r="I98" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="J98" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="M98" t="s">
-        <v>694</v>
-      </c>
-      <c r="P98">
-        <v>0</v>
-      </c>
-      <c r="Q98">
-        <v>0</v>
-      </c>
-      <c r="R98">
-        <v>0</v>
-      </c>
-      <c r="S98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B99" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C99" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D99" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E99">
         <v>98</v>
       </c>
       <c r="F99" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G99">
         <v>36</v>
@@ -7287,45 +6099,33 @@
         <v>77</v>
       </c>
       <c r="I99" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="J99" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="M99" t="s">
-        <v>694</v>
-      </c>
-      <c r="P99">
-        <v>0</v>
-      </c>
-      <c r="Q99">
-        <v>0</v>
-      </c>
-      <c r="R99">
-        <v>0</v>
-      </c>
-      <c r="S99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B100" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C100" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D100" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E100">
         <v>99</v>
       </c>
       <c r="F100" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G100">
         <v>37</v>
@@ -7334,45 +6134,33 @@
         <v>78</v>
       </c>
       <c r="I100" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="J100" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="M100" t="s">
-        <v>694</v>
-      </c>
-      <c r="P100">
-        <v>0</v>
-      </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-      <c r="R100">
-        <v>0</v>
-      </c>
-      <c r="S100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B101" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C101" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D101" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E101">
         <v>100</v>
       </c>
       <c r="F101" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G101">
         <v>38</v>
@@ -7381,45 +6169,33 @@
         <v>80</v>
       </c>
       <c r="I101" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="J101" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M101" t="s">
-        <v>694</v>
-      </c>
-      <c r="P101">
-        <v>0</v>
-      </c>
-      <c r="Q101">
-        <v>0</v>
-      </c>
-      <c r="R101">
-        <v>0</v>
-      </c>
-      <c r="S101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B102" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C102" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D102" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E102">
         <v>101</v>
       </c>
       <c r="F102" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G102">
         <v>38</v>
@@ -7428,45 +6204,33 @@
         <v>80</v>
       </c>
       <c r="I102" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="J102" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M102" t="s">
-        <v>694</v>
-      </c>
-      <c r="P102">
-        <v>0</v>
-      </c>
-      <c r="Q102">
-        <v>0</v>
-      </c>
-      <c r="R102">
-        <v>0</v>
-      </c>
-      <c r="S102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B103" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C103" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D103" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E103">
         <v>102</v>
       </c>
       <c r="F103" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G103">
         <v>38</v>
@@ -7475,45 +6239,33 @@
         <v>80</v>
       </c>
       <c r="I103" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="J103" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M103" t="s">
-        <v>694</v>
-      </c>
-      <c r="P103">
-        <v>0</v>
-      </c>
-      <c r="Q103">
-        <v>0</v>
-      </c>
-      <c r="R103">
-        <v>0</v>
-      </c>
-      <c r="S103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B104" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C104" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D104" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E104">
         <v>103</v>
       </c>
       <c r="F104" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G104">
         <v>38</v>
@@ -7522,45 +6274,33 @@
         <v>80</v>
       </c>
       <c r="I104" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="J104" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M104" t="s">
-        <v>694</v>
-      </c>
-      <c r="P104">
-        <v>0</v>
-      </c>
-      <c r="Q104">
-        <v>0</v>
-      </c>
-      <c r="R104">
-        <v>0</v>
-      </c>
-      <c r="S104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B105" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C105" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D105" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="E105">
         <v>104</v>
       </c>
       <c r="F105" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G105">
         <v>38</v>
@@ -7569,45 +6309,33 @@
         <v>80</v>
       </c>
       <c r="I105" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="J105" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M105" t="s">
-        <v>694</v>
-      </c>
-      <c r="P105">
-        <v>0</v>
-      </c>
-      <c r="Q105">
-        <v>0</v>
-      </c>
-      <c r="R105">
-        <v>0</v>
-      </c>
-      <c r="S105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B106" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C106" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D106" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G106">
         <v>38</v>
@@ -7616,45 +6344,33 @@
         <v>80</v>
       </c>
       <c r="I106" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="J106" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M106" t="s">
-        <v>694</v>
-      </c>
-      <c r="P106">
-        <v>0</v>
-      </c>
-      <c r="Q106">
-        <v>0</v>
-      </c>
-      <c r="R106">
-        <v>0</v>
-      </c>
-      <c r="S106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B107" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C107" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D107" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E107">
         <v>106</v>
       </c>
       <c r="F107" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G107">
         <v>38</v>
@@ -7663,45 +6379,33 @@
         <v>80</v>
       </c>
       <c r="I107" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="J107" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M107" t="s">
-        <v>694</v>
-      </c>
-      <c r="P107">
-        <v>0</v>
-      </c>
-      <c r="Q107">
-        <v>0</v>
-      </c>
-      <c r="R107">
-        <v>0</v>
-      </c>
-      <c r="S107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B108" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C108" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D108" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E108">
         <v>107</v>
       </c>
       <c r="F108" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G108">
         <v>38</v>
@@ -7710,45 +6414,33 @@
         <v>80</v>
       </c>
       <c r="I108" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="J108" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M108" t="s">
-        <v>694</v>
-      </c>
-      <c r="P108">
-        <v>0</v>
-      </c>
-      <c r="Q108">
-        <v>0</v>
-      </c>
-      <c r="R108">
-        <v>0</v>
-      </c>
-      <c r="S108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B109" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C109" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D109" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E109">
         <v>108</v>
       </c>
       <c r="F109" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G109">
         <v>39</v>
@@ -7757,45 +6449,33 @@
         <v>81</v>
       </c>
       <c r="I109" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="J109" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="M109" t="s">
-        <v>694</v>
-      </c>
-      <c r="P109">
-        <v>0</v>
-      </c>
-      <c r="Q109">
-        <v>0</v>
-      </c>
-      <c r="R109">
-        <v>0</v>
-      </c>
-      <c r="S109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B110" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C110" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D110" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E110">
         <v>109</v>
       </c>
       <c r="F110" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G110">
         <v>39</v>
@@ -7804,45 +6484,33 @@
         <v>81</v>
       </c>
       <c r="I110" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="J110" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="M110" t="s">
-        <v>694</v>
-      </c>
-      <c r="P110">
-        <v>0</v>
-      </c>
-      <c r="Q110">
-        <v>0</v>
-      </c>
-      <c r="R110">
-        <v>0</v>
-      </c>
-      <c r="S110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B111" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C111" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D111" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E111">
         <v>110</v>
       </c>
       <c r="F111" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G111">
         <v>39</v>
@@ -7851,45 +6519,33 @@
         <v>81</v>
       </c>
       <c r="I111" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="J111" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="M111" t="s">
-        <v>694</v>
-      </c>
-      <c r="P111">
-        <v>0</v>
-      </c>
-      <c r="Q111">
-        <v>0</v>
-      </c>
-      <c r="R111">
-        <v>0</v>
-      </c>
-      <c r="S111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B112" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C112" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D112" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E112">
         <v>111</v>
       </c>
       <c r="F112" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G112">
         <v>40</v>
@@ -7898,45 +6554,33 @@
         <v>82</v>
       </c>
       <c r="I112" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="J112" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="M112" t="s">
-        <v>694</v>
-      </c>
-      <c r="P112">
-        <v>0</v>
-      </c>
-      <c r="Q112">
-        <v>0</v>
-      </c>
-      <c r="R112">
-        <v>0</v>
-      </c>
-      <c r="S112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B113" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C113" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D113" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="E113">
         <v>112</v>
       </c>
       <c r="F113" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G113">
         <v>41</v>
@@ -7945,45 +6589,33 @@
         <v>83</v>
       </c>
       <c r="I113" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="J113" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="M113" t="s">
-        <v>694</v>
-      </c>
-      <c r="P113">
-        <v>0</v>
-      </c>
-      <c r="Q113">
-        <v>0</v>
-      </c>
-      <c r="R113">
-        <v>0</v>
-      </c>
-      <c r="S113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B114" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C114" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D114" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E114">
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G114">
         <v>42</v>
@@ -7992,45 +6624,33 @@
         <v>84</v>
       </c>
       <c r="I114" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="J114" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="M114" t="s">
-        <v>694</v>
-      </c>
-      <c r="P114">
-        <v>0</v>
-      </c>
-      <c r="Q114">
-        <v>0</v>
-      </c>
-      <c r="R114">
-        <v>0</v>
-      </c>
-      <c r="S114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B115" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C115" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D115" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="E115">
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G115">
         <v>44</v>
@@ -8039,45 +6659,33 @@
         <v>87</v>
       </c>
       <c r="I115" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="J115" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="M115" t="s">
-        <v>694</v>
-      </c>
-      <c r="P115">
-        <v>0</v>
-      </c>
-      <c r="Q115">
-        <v>0</v>
-      </c>
-      <c r="R115">
-        <v>0</v>
-      </c>
-      <c r="S115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B116" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C116" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D116" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G116">
         <v>45</v>
@@ -8086,45 +6694,33 @@
         <v>88</v>
       </c>
       <c r="I116" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="J116" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M116" t="s">
-        <v>695</v>
-      </c>
-      <c r="P116">
-        <v>0</v>
-      </c>
-      <c r="Q116">
-        <v>0</v>
-      </c>
-      <c r="R116">
-        <v>0</v>
-      </c>
-      <c r="S116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B117" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C117" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D117" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G117">
         <v>45</v>
@@ -8133,45 +6729,33 @@
         <v>88</v>
       </c>
       <c r="I117" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="J117" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M117" t="s">
-        <v>695</v>
-      </c>
-      <c r="P117">
-        <v>0</v>
-      </c>
-      <c r="Q117">
-        <v>0</v>
-      </c>
-      <c r="R117">
-        <v>0</v>
-      </c>
-      <c r="S117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B118" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C118" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D118" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E118">
         <v>117</v>
       </c>
       <c r="F118" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G118">
         <v>46</v>
@@ -8180,45 +6764,33 @@
         <v>90</v>
       </c>
       <c r="I118" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="J118" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M118" t="s">
-        <v>694</v>
-      </c>
-      <c r="P118">
-        <v>0</v>
-      </c>
-      <c r="Q118">
-        <v>0</v>
-      </c>
-      <c r="R118">
-        <v>0</v>
-      </c>
-      <c r="S118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B119" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C119" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D119" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="E119">
         <v>118</v>
       </c>
       <c r="F119" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G119">
         <v>46</v>
@@ -8227,45 +6799,33 @@
         <v>90</v>
       </c>
       <c r="I119" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="J119" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M119" t="s">
-        <v>694</v>
-      </c>
-      <c r="P119">
-        <v>0</v>
-      </c>
-      <c r="Q119">
-        <v>0</v>
-      </c>
-      <c r="R119">
-        <v>0</v>
-      </c>
-      <c r="S119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B120" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C120" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D120" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E120">
         <v>119</v>
       </c>
       <c r="F120" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G120">
         <v>46</v>
@@ -8274,45 +6834,33 @@
         <v>90</v>
       </c>
       <c r="I120" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="J120" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M120" t="s">
-        <v>694</v>
-      </c>
-      <c r="P120">
-        <v>0</v>
-      </c>
-      <c r="Q120">
-        <v>0</v>
-      </c>
-      <c r="R120">
-        <v>0</v>
-      </c>
-      <c r="S120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B121" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C121" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D121" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E121">
         <v>120</v>
       </c>
       <c r="F121" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G121">
         <v>46</v>
@@ -8321,45 +6869,33 @@
         <v>90</v>
       </c>
       <c r="I121" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="J121" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M121" t="s">
-        <v>694</v>
-      </c>
-      <c r="P121">
-        <v>0</v>
-      </c>
-      <c r="Q121">
-        <v>0</v>
-      </c>
-      <c r="R121">
-        <v>0</v>
-      </c>
-      <c r="S121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B122" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C122" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D122" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="E122">
         <v>121</v>
       </c>
       <c r="F122" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G122">
         <v>46</v>
@@ -8368,45 +6904,33 @@
         <v>90</v>
       </c>
       <c r="I122" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="J122" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M122" t="s">
-        <v>694</v>
-      </c>
-      <c r="P122">
-        <v>0</v>
-      </c>
-      <c r="Q122">
-        <v>0</v>
-      </c>
-      <c r="R122">
-        <v>0</v>
-      </c>
-      <c r="S122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B123" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C123" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D123" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E123">
         <v>122</v>
       </c>
       <c r="F123" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G123">
         <v>48</v>
@@ -8415,45 +6939,33 @@
         <v>92</v>
       </c>
       <c r="I123" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="J123" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="M123" t="s">
-        <v>694</v>
-      </c>
-      <c r="P123">
-        <v>0</v>
-      </c>
-      <c r="Q123">
-        <v>0</v>
-      </c>
-      <c r="R123">
-        <v>0</v>
-      </c>
-      <c r="S123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B124" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C124" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D124" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E124">
         <v>123</v>
       </c>
       <c r="F124" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G124">
         <v>49</v>
@@ -8462,45 +6974,33 @@
         <v>93</v>
       </c>
       <c r="I124" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="J124" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="M124" t="s">
-        <v>694</v>
-      </c>
-      <c r="P124">
-        <v>0</v>
-      </c>
-      <c r="Q124">
-        <v>0</v>
-      </c>
-      <c r="R124">
-        <v>0</v>
-      </c>
-      <c r="S124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B125" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C125" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D125" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E125">
         <v>124</v>
       </c>
       <c r="F125" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G125">
         <v>49</v>
@@ -8509,45 +7009,33 @@
         <v>93</v>
       </c>
       <c r="I125" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="J125" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="M125" t="s">
-        <v>694</v>
-      </c>
-      <c r="P125">
-        <v>0</v>
-      </c>
-      <c r="Q125">
-        <v>0</v>
-      </c>
-      <c r="R125">
-        <v>0</v>
-      </c>
-      <c r="S125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B126" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C126" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D126" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="E126">
         <v>125</v>
       </c>
       <c r="F126" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G126">
         <v>49</v>
@@ -8556,45 +7044,33 @@
         <v>93</v>
       </c>
       <c r="I126" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="J126" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="M126" t="s">
-        <v>694</v>
-      </c>
-      <c r="P126">
-        <v>0</v>
-      </c>
-      <c r="Q126">
-        <v>0</v>
-      </c>
-      <c r="R126">
-        <v>0</v>
-      </c>
-      <c r="S126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B127" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C127" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D127" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="E127">
         <v>126</v>
       </c>
       <c r="F127" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G127">
         <v>49</v>
@@ -8603,45 +7079,33 @@
         <v>93</v>
       </c>
       <c r="I127" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="J127" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="M127" t="s">
-        <v>694</v>
-      </c>
-      <c r="P127">
-        <v>0</v>
-      </c>
-      <c r="Q127">
-        <v>0</v>
-      </c>
-      <c r="R127">
-        <v>0</v>
-      </c>
-      <c r="S127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B128" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C128" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D128" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E128">
         <v>127</v>
       </c>
       <c r="F128" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G128">
         <v>49</v>
@@ -8650,45 +7114,33 @@
         <v>93</v>
       </c>
       <c r="I128" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="J128" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="M128" t="s">
-        <v>694</v>
-      </c>
-      <c r="P128">
-        <v>0</v>
-      </c>
-      <c r="Q128">
-        <v>0</v>
-      </c>
-      <c r="R128">
-        <v>0</v>
-      </c>
-      <c r="S128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B129" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C129" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D129" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="E129">
         <v>128</v>
       </c>
       <c r="F129" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G129">
         <v>50</v>
@@ -8697,45 +7149,33 @@
         <v>94</v>
       </c>
       <c r="I129" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="J129" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M129" t="s">
-        <v>694</v>
-      </c>
-      <c r="P129">
-        <v>0</v>
-      </c>
-      <c r="Q129">
-        <v>0</v>
-      </c>
-      <c r="R129">
-        <v>0</v>
-      </c>
-      <c r="S129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B130" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C130" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D130" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E130">
         <v>129</v>
       </c>
       <c r="F130" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G130">
         <v>50</v>
@@ -8744,42 +7184,30 @@
         <v>94</v>
       </c>
       <c r="I130" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="J130" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M130" t="s">
-        <v>694</v>
-      </c>
-      <c r="P130">
-        <v>0</v>
-      </c>
-      <c r="Q130">
-        <v>0</v>
-      </c>
-      <c r="R130">
-        <v>0</v>
-      </c>
-      <c r="S130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
       <c r="B131" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C131" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D131" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="E131">
         <v>130</v>
       </c>
       <c r="F131" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G131">
         <v>50</v>
@@ -8788,42 +7216,30 @@
         <v>94</v>
       </c>
       <c r="I131" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="J131" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M131" t="s">
-        <v>694</v>
-      </c>
-      <c r="P131">
-        <v>0</v>
-      </c>
-      <c r="Q131">
-        <v>0</v>
-      </c>
-      <c r="R131">
-        <v>0</v>
-      </c>
-      <c r="S131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="B132" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C132" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D132" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E132">
         <v>131</v>
       </c>
       <c r="F132" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G132">
         <v>50</v>
@@ -8832,42 +7248,30 @@
         <v>94</v>
       </c>
       <c r="I132" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="J132" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M132" t="s">
-        <v>694</v>
-      </c>
-      <c r="P132">
-        <v>0</v>
-      </c>
-      <c r="Q132">
-        <v>0</v>
-      </c>
-      <c r="R132">
-        <v>0</v>
-      </c>
-      <c r="S132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="B133" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C133" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D133" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="E133">
         <v>132</v>
       </c>
       <c r="F133" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G133">
         <v>50</v>
@@ -8876,42 +7280,30 @@
         <v>94</v>
       </c>
       <c r="I133" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="J133" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M133" t="s">
-        <v>694</v>
-      </c>
-      <c r="P133">
-        <v>0</v>
-      </c>
-      <c r="Q133">
-        <v>0</v>
-      </c>
-      <c r="R133">
-        <v>0</v>
-      </c>
-      <c r="S133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="B134" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C134" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D134" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="E134">
         <v>133</v>
       </c>
       <c r="F134" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G134">
         <v>50</v>
@@ -8920,42 +7312,30 @@
         <v>94</v>
       </c>
       <c r="I134" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="J134" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M134" t="s">
-        <v>694</v>
-      </c>
-      <c r="P134">
-        <v>0</v>
-      </c>
-      <c r="Q134">
-        <v>0</v>
-      </c>
-      <c r="R134">
-        <v>0</v>
-      </c>
-      <c r="S134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="B135" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C135" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D135" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="E135">
         <v>134</v>
       </c>
       <c r="F135" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G135">
         <v>50</v>
@@ -8964,45 +7344,33 @@
         <v>94</v>
       </c>
       <c r="I135" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="J135" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M135" t="s">
-        <v>694</v>
-      </c>
-      <c r="P135">
-        <v>0</v>
-      </c>
-      <c r="Q135">
-        <v>0</v>
-      </c>
-      <c r="R135">
-        <v>0</v>
-      </c>
-      <c r="S135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C136" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D136" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E136">
         <v>135</v>
       </c>
       <c r="F136" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G136">
         <v>51</v>
@@ -9011,45 +7379,33 @@
         <v>95</v>
       </c>
       <c r="I136" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="J136" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M136" t="s">
-        <v>694</v>
-      </c>
-      <c r="P136">
-        <v>0</v>
-      </c>
-      <c r="Q136">
-        <v>0</v>
-      </c>
-      <c r="R136">
-        <v>0</v>
-      </c>
-      <c r="S136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C137" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D137" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="E137">
         <v>136</v>
       </c>
       <c r="F137" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G137">
         <v>51</v>
@@ -9058,45 +7414,33 @@
         <v>95</v>
       </c>
       <c r="I137" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="J137" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M137" t="s">
-        <v>694</v>
-      </c>
-      <c r="P137">
-        <v>0</v>
-      </c>
-      <c r="Q137">
-        <v>0</v>
-      </c>
-      <c r="R137">
-        <v>0</v>
-      </c>
-      <c r="S137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C138" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D138" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E138">
         <v>137</v>
       </c>
       <c r="F138" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G138">
         <v>51</v>
@@ -9105,45 +7449,33 @@
         <v>95</v>
       </c>
       <c r="I138" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="J138" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M138" t="s">
-        <v>694</v>
-      </c>
-      <c r="P138">
-        <v>0</v>
-      </c>
-      <c r="Q138">
-        <v>0</v>
-      </c>
-      <c r="R138">
-        <v>0</v>
-      </c>
-      <c r="S138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C139" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D139" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="E139">
         <v>138</v>
       </c>
       <c r="F139" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G139">
         <v>51</v>
@@ -9152,45 +7484,33 @@
         <v>95</v>
       </c>
       <c r="I139" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="J139" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M139" t="s">
-        <v>694</v>
-      </c>
-      <c r="P139">
-        <v>0</v>
-      </c>
-      <c r="Q139">
-        <v>0</v>
-      </c>
-      <c r="R139">
-        <v>0</v>
-      </c>
-      <c r="S139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C140" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D140" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E140">
         <v>139</v>
       </c>
       <c r="F140" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G140">
         <v>51</v>
@@ -9199,45 +7519,33 @@
         <v>95</v>
       </c>
       <c r="I140" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="J140" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M140" t="s">
-        <v>694</v>
-      </c>
-      <c r="P140">
-        <v>0</v>
-      </c>
-      <c r="Q140">
-        <v>0</v>
-      </c>
-      <c r="R140">
-        <v>0</v>
-      </c>
-      <c r="S140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C141" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D141" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="E141">
         <v>140</v>
       </c>
       <c r="F141" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G141">
         <v>51</v>
@@ -9246,45 +7554,33 @@
         <v>95</v>
       </c>
       <c r="I141" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="J141" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M141" t="s">
-        <v>694</v>
-      </c>
-      <c r="P141">
-        <v>0</v>
-      </c>
-      <c r="Q141">
-        <v>0</v>
-      </c>
-      <c r="R141">
-        <v>0</v>
-      </c>
-      <c r="S141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C142" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D142" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="E142">
         <v>141</v>
       </c>
       <c r="F142" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G142">
         <v>51</v>
@@ -9293,45 +7589,33 @@
         <v>95</v>
       </c>
       <c r="I142" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="J142" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M142" t="s">
-        <v>694</v>
-      </c>
-      <c r="P142">
-        <v>0</v>
-      </c>
-      <c r="Q142">
-        <v>0</v>
-      </c>
-      <c r="R142">
-        <v>0</v>
-      </c>
-      <c r="S142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C143" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D143" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="E143">
         <v>142</v>
       </c>
       <c r="F143" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G143">
         <v>51</v>
@@ -9340,45 +7624,33 @@
         <v>95</v>
       </c>
       <c r="I143" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="J143" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M143" t="s">
-        <v>694</v>
-      </c>
-      <c r="P143">
-        <v>0</v>
-      </c>
-      <c r="Q143">
-        <v>0</v>
-      </c>
-      <c r="R143">
-        <v>0</v>
-      </c>
-      <c r="S143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C144" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D144" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="E144">
         <v>143</v>
       </c>
       <c r="F144" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G144">
         <v>51</v>
@@ -9387,45 +7659,33 @@
         <v>95</v>
       </c>
       <c r="I144" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="J144" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M144" t="s">
-        <v>694</v>
-      </c>
-      <c r="P144">
-        <v>0</v>
-      </c>
-      <c r="Q144">
-        <v>0</v>
-      </c>
-      <c r="R144">
-        <v>0</v>
-      </c>
-      <c r="S144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C145" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D145" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="E145">
         <v>144</v>
       </c>
       <c r="F145" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G145">
         <v>51</v>
@@ -9434,45 +7694,33 @@
         <v>95</v>
       </c>
       <c r="I145" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="J145" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M145" t="s">
-        <v>694</v>
-      </c>
-      <c r="P145">
-        <v>0</v>
-      </c>
-      <c r="Q145">
-        <v>0</v>
-      </c>
-      <c r="R145">
-        <v>0</v>
-      </c>
-      <c r="S145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C146" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D146" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="E146">
         <v>145</v>
       </c>
       <c r="F146" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G146">
         <v>51</v>
@@ -9481,45 +7729,33 @@
         <v>95</v>
       </c>
       <c r="I146" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="J146" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M146" t="s">
-        <v>694</v>
-      </c>
-      <c r="P146">
-        <v>0</v>
-      </c>
-      <c r="Q146">
-        <v>0</v>
-      </c>
-      <c r="R146">
-        <v>0</v>
-      </c>
-      <c r="S146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C147" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D147" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="E147">
         <v>146</v>
       </c>
       <c r="F147" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G147">
         <v>51</v>
@@ -9528,45 +7764,33 @@
         <v>95</v>
       </c>
       <c r="I147" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="J147" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M147" t="s">
-        <v>694</v>
-      </c>
-      <c r="P147">
-        <v>0</v>
-      </c>
-      <c r="Q147">
-        <v>0</v>
-      </c>
-      <c r="R147">
-        <v>0</v>
-      </c>
-      <c r="S147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C148" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D148" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E148">
         <v>147</v>
       </c>
       <c r="F148" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G148">
         <v>51</v>
@@ -9575,45 +7799,33 @@
         <v>95</v>
       </c>
       <c r="I148" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="J148" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M148" t="s">
-        <v>694</v>
-      </c>
-      <c r="P148">
-        <v>0</v>
-      </c>
-      <c r="Q148">
-        <v>0</v>
-      </c>
-      <c r="R148">
-        <v>0</v>
-      </c>
-      <c r="S148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C149" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D149" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E149">
         <v>148</v>
       </c>
       <c r="F149" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G149">
         <v>53</v>
@@ -9622,45 +7834,33 @@
         <v>98</v>
       </c>
       <c r="I149" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="J149" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="M149" t="s">
-        <v>695</v>
-      </c>
-      <c r="P149">
-        <v>0</v>
-      </c>
-      <c r="Q149">
-        <v>0</v>
-      </c>
-      <c r="R149">
-        <v>0</v>
-      </c>
-      <c r="S149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:19">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B150" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C150" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D150" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="E150">
         <v>149</v>
       </c>
       <c r="F150" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G150">
         <v>54</v>
@@ -9669,45 +7869,33 @@
         <v>99</v>
       </c>
       <c r="I150" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="J150" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="M150" t="s">
-        <v>694</v>
-      </c>
-      <c r="P150">
-        <v>0</v>
-      </c>
-      <c r="Q150">
-        <v>0</v>
-      </c>
-      <c r="R150">
-        <v>0</v>
-      </c>
-      <c r="S150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B151" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C151" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D151" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="E151">
         <v>150</v>
       </c>
       <c r="F151" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G151">
         <v>54</v>
@@ -9716,45 +7904,33 @@
         <v>99</v>
       </c>
       <c r="I151" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="J151" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="M151" t="s">
-        <v>694</v>
-      </c>
-      <c r="P151">
-        <v>0</v>
-      </c>
-      <c r="Q151">
-        <v>0</v>
-      </c>
-      <c r="R151">
-        <v>0</v>
-      </c>
-      <c r="S151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B152" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C152" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D152" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E152">
         <v>151</v>
       </c>
       <c r="F152" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G152">
         <v>54</v>
@@ -9763,45 +7939,33 @@
         <v>99</v>
       </c>
       <c r="I152" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="J152" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="M152" t="s">
-        <v>694</v>
-      </c>
-      <c r="P152">
-        <v>0</v>
-      </c>
-      <c r="Q152">
-        <v>0</v>
-      </c>
-      <c r="R152">
-        <v>0</v>
-      </c>
-      <c r="S152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
       <c r="A153" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C153" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D153" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="E153">
         <v>152</v>
       </c>
       <c r="F153" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G153">
         <v>55</v>
@@ -9810,45 +7974,33 @@
         <v>100</v>
       </c>
       <c r="I153" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="J153" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="M153" t="s">
-        <v>694</v>
-      </c>
-      <c r="P153">
-        <v>0</v>
-      </c>
-      <c r="Q153">
-        <v>0</v>
-      </c>
-      <c r="R153">
-        <v>0</v>
-      </c>
-      <c r="S153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
       <c r="A154" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C154" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D154" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E154">
         <v>153</v>
       </c>
       <c r="F154" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G154">
         <v>56</v>
@@ -9857,45 +8009,33 @@
         <v>101</v>
       </c>
       <c r="I154" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="J154" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="M154" t="s">
-        <v>694</v>
-      </c>
-      <c r="P154">
-        <v>0</v>
-      </c>
-      <c r="Q154">
-        <v>0</v>
-      </c>
-      <c r="R154">
-        <v>0</v>
-      </c>
-      <c r="S154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
       <c r="A155" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C155" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D155" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="E155">
         <v>154</v>
       </c>
       <c r="F155" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G155">
         <v>57</v>
@@ -9904,45 +8044,33 @@
         <v>102</v>
       </c>
       <c r="I155" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="J155" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="M155" t="s">
-        <v>694</v>
-      </c>
-      <c r="P155">
-        <v>0</v>
-      </c>
-      <c r="Q155">
-        <v>0</v>
-      </c>
-      <c r="R155">
-        <v>0</v>
-      </c>
-      <c r="S155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
       <c r="A156" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C156" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D156" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E156">
         <v>155</v>
       </c>
       <c r="F156" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G156">
         <v>59</v>
@@ -9951,45 +8079,33 @@
         <v>104</v>
       </c>
       <c r="I156" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="J156" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="M156" t="s">
-        <v>694</v>
-      </c>
-      <c r="P156">
-        <v>0</v>
-      </c>
-      <c r="Q156">
-        <v>0</v>
-      </c>
-      <c r="R156">
-        <v>0</v>
-      </c>
-      <c r="S156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
       <c r="A157" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C157" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D157" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E157">
         <v>156</v>
       </c>
       <c r="F157" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G157">
         <v>60</v>
@@ -9998,45 +8114,33 @@
         <v>105</v>
       </c>
       <c r="I157" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="J157" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="M157" t="s">
-        <v>694</v>
-      </c>
-      <c r="P157">
-        <v>0</v>
-      </c>
-      <c r="Q157">
-        <v>0</v>
-      </c>
-      <c r="R157">
-        <v>0</v>
-      </c>
-      <c r="S157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
       <c r="A158" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C158" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D158" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E158">
         <v>157</v>
       </c>
       <c r="F158" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G158">
         <v>61</v>
@@ -10045,45 +8149,33 @@
         <v>106</v>
       </c>
       <c r="I158" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="J158" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="M158" t="s">
-        <v>694</v>
-      </c>
-      <c r="P158">
-        <v>0</v>
-      </c>
-      <c r="Q158">
-        <v>0</v>
-      </c>
-      <c r="R158">
-        <v>0</v>
-      </c>
-      <c r="S158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
       <c r="A159" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B159" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C159" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D159" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E159">
         <v>158</v>
       </c>
       <c r="F159" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G159">
         <v>65</v>
@@ -10092,45 +8184,33 @@
         <v>111</v>
       </c>
       <c r="I159" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="J159" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="M159" t="s">
-        <v>694</v>
-      </c>
-      <c r="P159">
-        <v>0</v>
-      </c>
-      <c r="Q159">
-        <v>0</v>
-      </c>
-      <c r="R159">
-        <v>0</v>
-      </c>
-      <c r="S159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
       <c r="A160" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B160" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C160" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D160" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E160">
         <v>159</v>
       </c>
       <c r="F160" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G160">
         <v>65</v>
@@ -10139,45 +8219,33 @@
         <v>111</v>
       </c>
       <c r="I160" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="J160" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="M160" t="s">
-        <v>694</v>
-      </c>
-      <c r="P160">
-        <v>0</v>
-      </c>
-      <c r="Q160">
-        <v>0</v>
-      </c>
-      <c r="R160">
-        <v>0</v>
-      </c>
-      <c r="S160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13">
       <c r="A161" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B161" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C161" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D161" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E161">
         <v>160</v>
       </c>
       <c r="F161" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G161">
         <v>65</v>
@@ -10186,45 +8254,33 @@
         <v>111</v>
       </c>
       <c r="I161" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="J161" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="M161" t="s">
-        <v>694</v>
-      </c>
-      <c r="P161">
-        <v>0</v>
-      </c>
-      <c r="Q161">
-        <v>0</v>
-      </c>
-      <c r="R161">
-        <v>0</v>
-      </c>
-      <c r="S161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13">
       <c r="A162" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B162" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C162" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D162" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E162">
         <v>161</v>
       </c>
       <c r="F162" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G162">
         <v>66</v>
@@ -10233,45 +8289,33 @@
         <v>113</v>
       </c>
       <c r="I162" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="J162" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="M162" t="s">
-        <v>694</v>
-      </c>
-      <c r="P162">
-        <v>0</v>
-      </c>
-      <c r="Q162">
-        <v>0</v>
-      </c>
-      <c r="R162">
-        <v>0</v>
-      </c>
-      <c r="S162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13">
       <c r="A163" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B163" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C163" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D163" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E163">
         <v>162</v>
       </c>
       <c r="F163" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G163">
         <v>66</v>
@@ -10280,45 +8324,33 @@
         <v>113</v>
       </c>
       <c r="I163" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="J163" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="M163" t="s">
-        <v>694</v>
-      </c>
-      <c r="P163">
-        <v>0</v>
-      </c>
-      <c r="Q163">
-        <v>0</v>
-      </c>
-      <c r="R163">
-        <v>0</v>
-      </c>
-      <c r="S163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13">
       <c r="A164" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B164" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C164" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D164" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E164">
         <v>163</v>
       </c>
       <c r="F164" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G164">
         <v>66</v>
@@ -10327,45 +8359,33 @@
         <v>113</v>
       </c>
       <c r="I164" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="J164" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="M164" t="s">
-        <v>694</v>
-      </c>
-      <c r="P164">
-        <v>0</v>
-      </c>
-      <c r="Q164">
-        <v>0</v>
-      </c>
-      <c r="R164">
-        <v>0</v>
-      </c>
-      <c r="S164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13">
       <c r="A165" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B165" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C165" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D165" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E165">
         <v>164</v>
       </c>
       <c r="F165" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G165">
         <v>68</v>
@@ -10374,45 +8394,33 @@
         <v>115</v>
       </c>
       <c r="I165" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="J165" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="M165" t="s">
-        <v>695</v>
-      </c>
-      <c r="P165">
-        <v>0</v>
-      </c>
-      <c r="Q165">
-        <v>0</v>
-      </c>
-      <c r="R165">
-        <v>0</v>
-      </c>
-      <c r="S165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:19">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13">
       <c r="A166" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B166" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C166" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D166" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="E166">
         <v>165</v>
       </c>
       <c r="F166" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G166">
         <v>68</v>
@@ -10421,45 +8429,33 @@
         <v>115</v>
       </c>
       <c r="I166" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="J166" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="M166" t="s">
-        <v>695</v>
-      </c>
-      <c r="P166">
-        <v>0</v>
-      </c>
-      <c r="Q166">
-        <v>0</v>
-      </c>
-      <c r="R166">
-        <v>0</v>
-      </c>
-      <c r="S166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:19">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13">
       <c r="A167" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B167" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C167" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D167" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E167">
         <v>166</v>
       </c>
       <c r="F167" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G167">
         <v>69</v>
@@ -10468,45 +8464,33 @@
         <v>117</v>
       </c>
       <c r="I167" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="J167" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="M167" t="s">
-        <v>694</v>
-      </c>
-      <c r="P167">
-        <v>0</v>
-      </c>
-      <c r="Q167">
-        <v>0</v>
-      </c>
-      <c r="R167">
-        <v>0</v>
-      </c>
-      <c r="S167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13">
       <c r="A168" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B168" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C168" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D168" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E168">
         <v>167</v>
       </c>
       <c r="F168" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G168">
         <v>70</v>
@@ -10515,45 +8499,33 @@
         <v>118</v>
       </c>
       <c r="I168" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="J168" s="2">
         <v>45058.12305555555</v>
       </c>
       <c r="M168" t="s">
-        <v>694</v>
-      </c>
-      <c r="P168">
-        <v>0</v>
-      </c>
-      <c r="Q168">
-        <v>0</v>
-      </c>
-      <c r="R168">
-        <v>0</v>
-      </c>
-      <c r="S168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13">
       <c r="A169" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B169" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C169" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D169" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E169">
         <v>168</v>
       </c>
       <c r="F169" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G169">
         <v>70</v>
@@ -10562,45 +8534,33 @@
         <v>118</v>
       </c>
       <c r="I169" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="J169" s="2">
         <v>45058.12305555555</v>
       </c>
       <c r="M169" t="s">
-        <v>694</v>
-      </c>
-      <c r="P169">
-        <v>0</v>
-      </c>
-      <c r="Q169">
-        <v>0</v>
-      </c>
-      <c r="R169">
-        <v>0</v>
-      </c>
-      <c r="S169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13">
       <c r="A170" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B170" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C170" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D170" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E170">
         <v>169</v>
       </c>
       <c r="F170" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G170">
         <v>71</v>
@@ -10609,25 +8569,13 @@
         <v>119</v>
       </c>
       <c r="I170" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="J170" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M170" t="s">
-        <v>694</v>
-      </c>
-      <c r="P170">
-        <v>0</v>
-      </c>
-      <c r="Q170">
-        <v>0</v>
-      </c>
-      <c r="R170">
-        <v>0</v>
-      </c>
-      <c r="S170">
-        <v>0</v>
+        <v>690</v>
       </c>
     </row>
   </sheetData>

--- a/files/separadas/repeat_p32.xlsx
+++ b/files/separadas/repeat_p32.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="693">
   <si>
     <t>p32_cod</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>_submission__tags</t>
+  </si>
+  <si>
+    <t>nota_iniciativa</t>
   </si>
   <si>
     <t>7518</t>
@@ -2625,13 +2628,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O170"/>
+  <dimension ref="A1:P170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2677,25 +2680,28 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -2704,33 +2710,36 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="J2" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="M2" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>691</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2739,33 +2748,36 @@
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="J3" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="M3" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>691</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -2774,33 +2786,36 @@
         <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="J4" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="M4" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>691</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2809,33 +2824,36 @@
         <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="J5" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="M5" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>691</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2844,33 +2862,36 @@
         <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="J6" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="M6" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>691</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -2879,33 +2900,36 @@
         <v>9</v>
       </c>
       <c r="I7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="J7" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="M7" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>691</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D8" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -2914,33 +2938,36 @@
         <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="J8" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="M8" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>691</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D9" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -2949,33 +2976,36 @@
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="J9" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M9" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>691</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D10" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -2984,33 +3014,36 @@
         <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="J10" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M10" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>691</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D11" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -3019,33 +3052,36 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="J11" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M11" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>691</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C12" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D12" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -3054,33 +3090,36 @@
         <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="J12" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M12" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>691</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C13" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D13" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -3089,33 +3128,36 @@
         <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="J13" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M13" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>691</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C14" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D14" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G14">
         <v>6</v>
@@ -3124,33 +3166,36 @@
         <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="J14" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="M14" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>691</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D15" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G15">
         <v>6</v>
@@ -3159,33 +3204,36 @@
         <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="J15" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="M15" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>691</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C16" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D16" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G16">
         <v>6</v>
@@ -3194,33 +3242,36 @@
         <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="J16" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="M16" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C17" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D17" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G17">
         <v>7</v>
@@ -3229,33 +3280,36 @@
         <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="J17" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="M17" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C18" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D18" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G18">
         <v>9</v>
@@ -3264,33 +3318,36 @@
         <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="J18" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="M18" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C19" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D19" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G19">
         <v>10</v>
@@ -3299,33 +3356,36 @@
         <v>16</v>
       </c>
       <c r="I19" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="J19" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="M19" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C20" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D20" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G20">
         <v>11</v>
@@ -3334,33 +3394,36 @@
         <v>17</v>
       </c>
       <c r="I20" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="J20" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M20" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C21" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D21" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G21">
         <v>11</v>
@@ -3369,33 +3432,36 @@
         <v>17</v>
       </c>
       <c r="I21" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="J21" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M21" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C22" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D22" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G22">
         <v>11</v>
@@ -3404,33 +3470,36 @@
         <v>17</v>
       </c>
       <c r="I22" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="J22" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M22" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C23" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D23" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G23">
         <v>11</v>
@@ -3439,33 +3508,36 @@
         <v>17</v>
       </c>
       <c r="I23" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="J23" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M23" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C24" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D24" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G24">
         <v>11</v>
@@ -3474,33 +3546,36 @@
         <v>17</v>
       </c>
       <c r="I24" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="J24" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M24" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D25" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G25">
         <v>12</v>
@@ -3509,33 +3584,36 @@
         <v>18</v>
       </c>
       <c r="I25" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="J25" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="M25" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C26" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D26" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G26">
         <v>12</v>
@@ -3544,33 +3622,36 @@
         <v>18</v>
       </c>
       <c r="I26" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="J26" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="M26" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C27" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D27" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G27">
         <v>12</v>
@@ -3579,33 +3660,36 @@
         <v>18</v>
       </c>
       <c r="I27" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="J27" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="M27" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C28" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D28" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G28">
         <v>13</v>
@@ -3614,33 +3698,36 @@
         <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="J28" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="M28" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>692</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C29" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D29" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G29">
         <v>13</v>
@@ -3649,33 +3736,36 @@
         <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="J29" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="M29" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>692</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C30" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D30" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G30">
         <v>14</v>
@@ -3684,33 +3774,36 @@
         <v>21</v>
       </c>
       <c r="I30" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="J30" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M30" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C31" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D31" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G31">
         <v>14</v>
@@ -3719,33 +3812,36 @@
         <v>21</v>
       </c>
       <c r="I31" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="J31" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M31" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C32" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D32" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G32">
         <v>14</v>
@@ -3754,33 +3850,36 @@
         <v>21</v>
       </c>
       <c r="I32" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="J32" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M32" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D33" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G33">
         <v>14</v>
@@ -3789,33 +3888,36 @@
         <v>21</v>
       </c>
       <c r="I33" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="J33" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M33" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C34" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D34" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G34">
         <v>15</v>
@@ -3824,33 +3926,36 @@
         <v>22</v>
       </c>
       <c r="I34" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="J34" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M34" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>692</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C35" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D35" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G35">
         <v>15</v>
@@ -3859,33 +3964,36 @@
         <v>22</v>
       </c>
       <c r="I35" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="J35" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M35" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>692</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C36" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D36" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G36">
         <v>16</v>
@@ -3894,33 +4002,36 @@
         <v>25</v>
       </c>
       <c r="I36" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="J36" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="M36" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C37" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D37" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G37">
         <v>16</v>
@@ -3929,33 +4040,36 @@
         <v>25</v>
       </c>
       <c r="I37" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="J37" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="M37" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C38" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D38" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G38">
         <v>16</v>
@@ -3964,33 +4078,36 @@
         <v>25</v>
       </c>
       <c r="I38" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="J38" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="M38" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C39" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D39" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G39">
         <v>17</v>
@@ -3999,33 +4116,36 @@
         <v>26</v>
       </c>
       <c r="I39" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="J39" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="M39" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C40" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D40" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G40">
         <v>18</v>
@@ -4034,33 +4154,36 @@
         <v>27</v>
       </c>
       <c r="I40" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="J40" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="M40" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D41" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G41">
         <v>19</v>
@@ -4069,33 +4192,36 @@
         <v>30</v>
       </c>
       <c r="I41" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="J41" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="M41" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C42" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D42" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G42">
         <v>19</v>
@@ -4104,33 +4230,36 @@
         <v>30</v>
       </c>
       <c r="I42" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="J42" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="M42" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D43" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G43">
         <v>19</v>
@@ -4139,33 +4268,36 @@
         <v>30</v>
       </c>
       <c r="I43" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="J43" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="M43" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D44" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G44">
         <v>19</v>
@@ -4174,33 +4306,36 @@
         <v>30</v>
       </c>
       <c r="I44" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="J44" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="M44" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C45" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D45" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G45">
         <v>20</v>
@@ -4209,33 +4344,36 @@
         <v>33</v>
       </c>
       <c r="I45" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="J45" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="M45" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C46" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D46" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G46">
         <v>20</v>
@@ -4244,33 +4382,36 @@
         <v>33</v>
       </c>
       <c r="I46" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="J46" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="M46" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C47" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D47" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G47">
         <v>20</v>
@@ -4279,33 +4420,36 @@
         <v>33</v>
       </c>
       <c r="I47" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="J47" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="M47" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C48" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D48" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G48">
         <v>20</v>
@@ -4314,33 +4458,36 @@
         <v>33</v>
       </c>
       <c r="I48" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="J48" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="M48" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C49" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D49" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G49">
         <v>21</v>
@@ -4349,33 +4496,36 @@
         <v>34</v>
       </c>
       <c r="I49" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="J49" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="M49" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C50" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D50" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G50">
         <v>21</v>
@@ -4384,33 +4534,36 @@
         <v>34</v>
       </c>
       <c r="I50" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="J50" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="M50" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C51" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D51" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G51">
         <v>21</v>
@@ -4419,33 +4572,36 @@
         <v>34</v>
       </c>
       <c r="I51" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="J51" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="M51" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C52" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D52" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G52">
         <v>22</v>
@@ -4454,33 +4610,36 @@
         <v>37</v>
       </c>
       <c r="I52" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="J52" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M52" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C53" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D53" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G53">
         <v>22</v>
@@ -4489,33 +4648,36 @@
         <v>37</v>
       </c>
       <c r="I53" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="J53" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M53" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C54" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D54" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G54">
         <v>22</v>
@@ -4524,33 +4686,36 @@
         <v>37</v>
       </c>
       <c r="I54" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="J54" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M54" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C55" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D55" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G55">
         <v>23</v>
@@ -4559,33 +4724,36 @@
         <v>38</v>
       </c>
       <c r="I55" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="J55" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M55" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B56" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C56" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D56" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G56">
         <v>23</v>
@@ -4594,33 +4762,36 @@
         <v>38</v>
       </c>
       <c r="I56" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="J56" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M56" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C57" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D57" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G57">
         <v>24</v>
@@ -4629,33 +4800,36 @@
         <v>51</v>
       </c>
       <c r="I57" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J57" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M57" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>692</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B58" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C58" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D58" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G58">
         <v>24</v>
@@ -4664,33 +4838,36 @@
         <v>51</v>
       </c>
       <c r="I58" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J58" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M58" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>692</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B59" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C59" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D59" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G59">
         <v>24</v>
@@ -4699,33 +4876,36 @@
         <v>51</v>
       </c>
       <c r="I59" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J59" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M59" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>692</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B60" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C60" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D60" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G60">
         <v>24</v>
@@ -4734,33 +4914,36 @@
         <v>51</v>
       </c>
       <c r="I60" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J60" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M60" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>692</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B61" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C61" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D61" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G61">
         <v>26</v>
@@ -4769,33 +4952,36 @@
         <v>55</v>
       </c>
       <c r="I61" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J61" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="M61" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B62" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C62" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D62" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G62">
         <v>27</v>
@@ -4804,33 +4990,36 @@
         <v>56</v>
       </c>
       <c r="I62" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J62" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="M62" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B63" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C63" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D63" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G63">
         <v>28</v>
@@ -4839,33 +5028,36 @@
         <v>57</v>
       </c>
       <c r="I63" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="J63" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="M63" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B64" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C64" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D64" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G64">
         <v>29</v>
@@ -4874,33 +5066,36 @@
         <v>58</v>
       </c>
       <c r="I64" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="J64" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M64" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B65" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C65" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D65" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G65">
         <v>29</v>
@@ -4909,33 +5104,36 @@
         <v>58</v>
       </c>
       <c r="I65" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="J65" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M65" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C66" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D66" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G66">
         <v>29</v>
@@ -4944,33 +5142,36 @@
         <v>58</v>
       </c>
       <c r="I66" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="J66" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M66" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C67" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D67" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G67">
         <v>29</v>
@@ -4979,33 +5180,36 @@
         <v>58</v>
       </c>
       <c r="I67" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="J67" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M67" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B68" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C68" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D68" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G68">
         <v>29</v>
@@ -5014,33 +5218,36 @@
         <v>58</v>
       </c>
       <c r="I68" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="J68" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M68" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B69" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C69" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D69" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E69">
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G69">
         <v>30</v>
@@ -5049,33 +5256,36 @@
         <v>59</v>
       </c>
       <c r="I69" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J69" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M69" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B70" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C70" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D70" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E70">
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G70">
         <v>30</v>
@@ -5084,33 +5294,36 @@
         <v>59</v>
       </c>
       <c r="I70" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J70" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M70" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B71" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C71" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D71" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E71">
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G71">
         <v>30</v>
@@ -5119,33 +5332,36 @@
         <v>59</v>
       </c>
       <c r="I71" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J71" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M71" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B72" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C72" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D72" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E72">
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G72">
         <v>30</v>
@@ -5154,33 +5370,36 @@
         <v>59</v>
       </c>
       <c r="I72" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J72" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M72" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B73" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C73" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D73" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E73">
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G73">
         <v>30</v>
@@ -5189,33 +5408,36 @@
         <v>59</v>
       </c>
       <c r="I73" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J73" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M73" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B74" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C74" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D74" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E74">
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G74">
         <v>30</v>
@@ -5224,33 +5446,36 @@
         <v>59</v>
       </c>
       <c r="I74" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J74" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M74" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B75" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C75" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D75" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E75">
         <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G75">
         <v>30</v>
@@ -5259,33 +5484,36 @@
         <v>59</v>
       </c>
       <c r="I75" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J75" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M75" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C76" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D76" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E76">
         <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G76">
         <v>30</v>
@@ -5294,33 +5522,36 @@
         <v>59</v>
       </c>
       <c r="I76" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J76" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M76" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B77" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C77" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D77" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E77">
         <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G77">
         <v>30</v>
@@ -5329,33 +5560,36 @@
         <v>59</v>
       </c>
       <c r="I77" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J77" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M77" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B78" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C78" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D78" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E78">
         <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G78">
         <v>30</v>
@@ -5364,33 +5598,36 @@
         <v>59</v>
       </c>
       <c r="I78" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J78" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M78" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
       <c r="A79" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B79" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C79" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D79" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E79">
         <v>78</v>
       </c>
       <c r="F79" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G79">
         <v>30</v>
@@ -5399,33 +5636,36 @@
         <v>59</v>
       </c>
       <c r="I79" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J79" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M79" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
       <c r="A80" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B80" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C80" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D80" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E80">
         <v>79</v>
       </c>
       <c r="F80" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G80">
         <v>30</v>
@@ -5434,33 +5674,36 @@
         <v>59</v>
       </c>
       <c r="I80" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J80" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M80" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
       <c r="A81" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B81" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C81" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D81" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E81">
         <v>80</v>
       </c>
       <c r="F81" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G81">
         <v>31</v>
@@ -5469,33 +5712,36 @@
         <v>60</v>
       </c>
       <c r="I81" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J81" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="M81" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
       <c r="A82" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B82" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C82" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D82" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E82">
         <v>81</v>
       </c>
       <c r="F82" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G82">
         <v>31</v>
@@ -5504,33 +5750,36 @@
         <v>60</v>
       </c>
       <c r="I82" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J82" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="M82" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
       <c r="A83" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B83" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C83" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D83" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E83">
         <v>82</v>
       </c>
       <c r="F83" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G83">
         <v>32</v>
@@ -5539,33 +5788,36 @@
         <v>61</v>
       </c>
       <c r="I83" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="J83" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M83" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
       <c r="A84" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B84" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C84" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D84" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E84">
         <v>83</v>
       </c>
       <c r="F84" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G84">
         <v>33</v>
@@ -5574,33 +5826,36 @@
         <v>63</v>
       </c>
       <c r="I84" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="J84" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M84" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
       <c r="A85" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B85" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C85" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D85" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E85">
         <v>84</v>
       </c>
       <c r="F85" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G85">
         <v>33</v>
@@ -5609,33 +5864,36 @@
         <v>63</v>
       </c>
       <c r="I85" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="J85" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M85" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
       <c r="A86" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B86" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C86" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D86" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E86">
         <v>85</v>
       </c>
       <c r="F86" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G86">
         <v>33</v>
@@ -5644,33 +5902,36 @@
         <v>63</v>
       </c>
       <c r="I86" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="J86" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M86" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
       <c r="A87" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B87" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C87" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D87" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E87">
         <v>86</v>
       </c>
       <c r="F87" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G87">
         <v>33</v>
@@ -5679,33 +5940,36 @@
         <v>63</v>
       </c>
       <c r="I87" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="J87" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M87" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
       <c r="A88" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B88" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C88" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D88" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G88">
         <v>33</v>
@@ -5714,33 +5978,36 @@
         <v>63</v>
       </c>
       <c r="I88" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="J88" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M88" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
       <c r="A89" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B89" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C89" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D89" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E89">
         <v>88</v>
       </c>
       <c r="F89" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G89">
         <v>33</v>
@@ -5749,33 +6016,36 @@
         <v>63</v>
       </c>
       <c r="I89" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="J89" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M89" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
       <c r="A90" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B90" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C90" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D90" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E90">
         <v>89</v>
       </c>
       <c r="F90" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G90">
         <v>33</v>
@@ -5784,33 +6054,36 @@
         <v>63</v>
       </c>
       <c r="I90" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="J90" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M90" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
       <c r="A91" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B91" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C91" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D91" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E91">
         <v>90</v>
       </c>
       <c r="F91" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G91">
         <v>33</v>
@@ -5819,33 +6092,36 @@
         <v>63</v>
       </c>
       <c r="I91" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="J91" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M91" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
       <c r="A92" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B92" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C92" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D92" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E92">
         <v>91</v>
       </c>
       <c r="F92" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G92">
         <v>33</v>
@@ -5854,33 +6130,36 @@
         <v>63</v>
       </c>
       <c r="I92" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="J92" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M92" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B93" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C93" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D93" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E93">
         <v>92</v>
       </c>
       <c r="F93" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G93">
         <v>33</v>
@@ -5889,33 +6168,36 @@
         <v>63</v>
       </c>
       <c r="I93" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="J93" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M93" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
       <c r="A94" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B94" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C94" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D94" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E94">
         <v>93</v>
       </c>
       <c r="F94" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G94">
         <v>33</v>
@@ -5924,33 +6206,36 @@
         <v>63</v>
       </c>
       <c r="I94" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="J94" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M94" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
       <c r="A95" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B95" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C95" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D95" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E95">
         <v>94</v>
       </c>
       <c r="F95" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G95">
         <v>33</v>
@@ -5959,33 +6244,36 @@
         <v>63</v>
       </c>
       <c r="I95" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="J95" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M95" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
       <c r="A96" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B96" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C96" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D96" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E96">
         <v>95</v>
       </c>
       <c r="F96" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G96">
         <v>33</v>
@@ -5994,33 +6282,36 @@
         <v>63</v>
       </c>
       <c r="I96" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="J96" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M96" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
       <c r="A97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B97" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C97" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D97" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E97">
         <v>96</v>
       </c>
       <c r="F97" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G97">
         <v>34</v>
@@ -6029,33 +6320,36 @@
         <v>64</v>
       </c>
       <c r="I97" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J97" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="M97" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
       <c r="A98" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B98" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C98" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D98" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E98">
         <v>97</v>
       </c>
       <c r="F98" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G98">
         <v>35</v>
@@ -6064,33 +6358,36 @@
         <v>75</v>
       </c>
       <c r="I98" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="J98" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="M98" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
       <c r="A99" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B99" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C99" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D99" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E99">
         <v>98</v>
       </c>
       <c r="F99" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G99">
         <v>36</v>
@@ -6099,33 +6396,36 @@
         <v>77</v>
       </c>
       <c r="I99" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="J99" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="M99" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
       <c r="A100" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B100" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C100" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D100" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E100">
         <v>99</v>
       </c>
       <c r="F100" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G100">
         <v>37</v>
@@ -6134,33 +6434,36 @@
         <v>78</v>
       </c>
       <c r="I100" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="J100" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="M100" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
       <c r="A101" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B101" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C101" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D101" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E101">
         <v>100</v>
       </c>
       <c r="F101" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G101">
         <v>38</v>
@@ -6169,33 +6472,36 @@
         <v>80</v>
       </c>
       <c r="I101" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="J101" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M101" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
       <c r="A102" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B102" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C102" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D102" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E102">
         <v>101</v>
       </c>
       <c r="F102" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G102">
         <v>38</v>
@@ -6204,33 +6510,36 @@
         <v>80</v>
       </c>
       <c r="I102" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="J102" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M102" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
       <c r="A103" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B103" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C103" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D103" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E103">
         <v>102</v>
       </c>
       <c r="F103" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G103">
         <v>38</v>
@@ -6239,33 +6548,36 @@
         <v>80</v>
       </c>
       <c r="I103" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="J103" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M103" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
       <c r="A104" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B104" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C104" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D104" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E104">
         <v>103</v>
       </c>
       <c r="F104" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G104">
         <v>38</v>
@@ -6274,33 +6586,36 @@
         <v>80</v>
       </c>
       <c r="I104" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="J104" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M104" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
       <c r="A105" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B105" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C105" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D105" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E105">
         <v>104</v>
       </c>
       <c r="F105" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G105">
         <v>38</v>
@@ -6309,33 +6624,36 @@
         <v>80</v>
       </c>
       <c r="I105" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="J105" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M105" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
       <c r="A106" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B106" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C106" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D106" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G106">
         <v>38</v>
@@ -6344,33 +6662,36 @@
         <v>80</v>
       </c>
       <c r="I106" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="J106" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M106" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
       <c r="A107" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B107" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C107" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D107" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E107">
         <v>106</v>
       </c>
       <c r="F107" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G107">
         <v>38</v>
@@ -6379,33 +6700,36 @@
         <v>80</v>
       </c>
       <c r="I107" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="J107" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M107" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
       <c r="A108" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B108" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C108" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D108" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E108">
         <v>107</v>
       </c>
       <c r="F108" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G108">
         <v>38</v>
@@ -6414,33 +6738,36 @@
         <v>80</v>
       </c>
       <c r="I108" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="J108" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M108" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
       <c r="A109" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C109" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D109" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E109">
         <v>108</v>
       </c>
       <c r="F109" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G109">
         <v>39</v>
@@ -6449,33 +6776,36 @@
         <v>81</v>
       </c>
       <c r="I109" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="J109" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="M109" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
       <c r="A110" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B110" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C110" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D110" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E110">
         <v>109</v>
       </c>
       <c r="F110" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G110">
         <v>39</v>
@@ -6484,33 +6814,36 @@
         <v>81</v>
       </c>
       <c r="I110" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="J110" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="M110" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
       <c r="A111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B111" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C111" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D111" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E111">
         <v>110</v>
       </c>
       <c r="F111" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G111">
         <v>39</v>
@@ -6519,33 +6852,36 @@
         <v>81</v>
       </c>
       <c r="I111" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="J111" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="M111" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
       <c r="A112" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B112" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C112" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D112" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E112">
         <v>111</v>
       </c>
       <c r="F112" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G112">
         <v>40</v>
@@ -6554,33 +6890,36 @@
         <v>82</v>
       </c>
       <c r="I112" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="J112" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="M112" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16">
       <c r="A113" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B113" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C113" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D113" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E113">
         <v>112</v>
       </c>
       <c r="F113" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G113">
         <v>41</v>
@@ -6589,33 +6928,36 @@
         <v>83</v>
       </c>
       <c r="I113" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="J113" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="M113" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16">
       <c r="A114" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B114" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C114" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D114" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E114">
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G114">
         <v>42</v>
@@ -6624,33 +6966,36 @@
         <v>84</v>
       </c>
       <c r="I114" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="J114" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="M114" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16">
       <c r="A115" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B115" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C115" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D115" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E115">
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G115">
         <v>44</v>
@@ -6659,33 +7004,36 @@
         <v>87</v>
       </c>
       <c r="I115" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="J115" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="M115" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16">
       <c r="A116" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B116" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C116" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D116" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G116">
         <v>45</v>
@@ -6694,33 +7042,36 @@
         <v>88</v>
       </c>
       <c r="I116" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="J116" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M116" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13">
+        <v>692</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16">
       <c r="A117" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B117" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C117" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D117" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G117">
         <v>45</v>
@@ -6729,33 +7080,36 @@
         <v>88</v>
       </c>
       <c r="I117" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="J117" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M117" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
+        <v>692</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16">
       <c r="A118" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B118" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C118" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D118" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E118">
         <v>117</v>
       </c>
       <c r="F118" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G118">
         <v>46</v>
@@ -6764,33 +7118,36 @@
         <v>90</v>
       </c>
       <c r="I118" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="J118" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M118" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
       <c r="A119" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B119" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C119" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D119" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E119">
         <v>118</v>
       </c>
       <c r="F119" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G119">
         <v>46</v>
@@ -6799,33 +7156,36 @@
         <v>90</v>
       </c>
       <c r="I119" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="J119" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M119" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
       <c r="A120" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B120" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C120" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D120" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E120">
         <v>119</v>
       </c>
       <c r="F120" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G120">
         <v>46</v>
@@ -6834,33 +7194,36 @@
         <v>90</v>
       </c>
       <c r="I120" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="J120" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M120" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16">
       <c r="A121" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B121" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C121" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D121" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E121">
         <v>120</v>
       </c>
       <c r="F121" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G121">
         <v>46</v>
@@ -6869,33 +7232,36 @@
         <v>90</v>
       </c>
       <c r="I121" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="J121" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M121" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16">
       <c r="A122" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B122" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C122" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D122" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E122">
         <v>121</v>
       </c>
       <c r="F122" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G122">
         <v>46</v>
@@ -6904,33 +7270,36 @@
         <v>90</v>
       </c>
       <c r="I122" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="J122" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M122" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16">
       <c r="A123" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B123" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C123" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D123" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E123">
         <v>122</v>
       </c>
       <c r="F123" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G123">
         <v>48</v>
@@ -6939,33 +7308,36 @@
         <v>92</v>
       </c>
       <c r="I123" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="J123" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="M123" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
       <c r="A124" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B124" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C124" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D124" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E124">
         <v>123</v>
       </c>
       <c r="F124" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G124">
         <v>49</v>
@@ -6974,33 +7346,36 @@
         <v>93</v>
       </c>
       <c r="I124" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J124" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="M124" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16">
       <c r="A125" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B125" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C125" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D125" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E125">
         <v>124</v>
       </c>
       <c r="F125" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G125">
         <v>49</v>
@@ -7009,33 +7384,36 @@
         <v>93</v>
       </c>
       <c r="I125" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J125" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="M125" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16">
       <c r="A126" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B126" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C126" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D126" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E126">
         <v>125</v>
       </c>
       <c r="F126" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G126">
         <v>49</v>
@@ -7044,33 +7422,36 @@
         <v>93</v>
       </c>
       <c r="I126" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J126" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="M126" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16">
       <c r="A127" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B127" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C127" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D127" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E127">
         <v>126</v>
       </c>
       <c r="F127" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G127">
         <v>49</v>
@@ -7079,33 +7460,36 @@
         <v>93</v>
       </c>
       <c r="I127" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J127" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="M127" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16">
       <c r="A128" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B128" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C128" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D128" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E128">
         <v>127</v>
       </c>
       <c r="F128" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G128">
         <v>49</v>
@@ -7114,33 +7498,36 @@
         <v>93</v>
       </c>
       <c r="I128" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J128" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="M128" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16">
       <c r="A129" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B129" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C129" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D129" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E129">
         <v>128</v>
       </c>
       <c r="F129" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G129">
         <v>50</v>
@@ -7149,33 +7536,36 @@
         <v>94</v>
       </c>
       <c r="I129" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="J129" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M129" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16">
       <c r="A130" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B130" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C130" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D130" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E130">
         <v>129</v>
       </c>
       <c r="F130" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G130">
         <v>50</v>
@@ -7184,30 +7574,33 @@
         <v>94</v>
       </c>
       <c r="I130" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="J130" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M130" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16">
       <c r="B131" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C131" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D131" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E131">
         <v>130</v>
       </c>
       <c r="F131" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G131">
         <v>50</v>
@@ -7216,30 +7609,33 @@
         <v>94</v>
       </c>
       <c r="I131" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="J131" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M131" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16">
       <c r="B132" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C132" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D132" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E132">
         <v>131</v>
       </c>
       <c r="F132" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G132">
         <v>50</v>
@@ -7248,30 +7644,33 @@
         <v>94</v>
       </c>
       <c r="I132" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="J132" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M132" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16">
       <c r="B133" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C133" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D133" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E133">
         <v>132</v>
       </c>
       <c r="F133" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G133">
         <v>50</v>
@@ -7280,30 +7679,33 @@
         <v>94</v>
       </c>
       <c r="I133" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="J133" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M133" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16">
       <c r="B134" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C134" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D134" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E134">
         <v>133</v>
       </c>
       <c r="F134" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G134">
         <v>50</v>
@@ -7312,30 +7714,33 @@
         <v>94</v>
       </c>
       <c r="I134" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="J134" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M134" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16">
       <c r="B135" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C135" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D135" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E135">
         <v>134</v>
       </c>
       <c r="F135" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G135">
         <v>50</v>
@@ -7344,33 +7749,36 @@
         <v>94</v>
       </c>
       <c r="I135" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="J135" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M135" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16">
       <c r="A136" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C136" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D136" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E136">
         <v>135</v>
       </c>
       <c r="F136" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G136">
         <v>51</v>
@@ -7379,33 +7787,36 @@
         <v>95</v>
       </c>
       <c r="I136" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="J136" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M136" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16">
       <c r="A137" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C137" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D137" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E137">
         <v>136</v>
       </c>
       <c r="F137" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G137">
         <v>51</v>
@@ -7414,33 +7825,36 @@
         <v>95</v>
       </c>
       <c r="I137" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="J137" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M137" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16">
       <c r="A138" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C138" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D138" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E138">
         <v>137</v>
       </c>
       <c r="F138" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G138">
         <v>51</v>
@@ -7449,33 +7863,36 @@
         <v>95</v>
       </c>
       <c r="I138" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="J138" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M138" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16">
       <c r="A139" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C139" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D139" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E139">
         <v>138</v>
       </c>
       <c r="F139" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G139">
         <v>51</v>
@@ -7484,33 +7901,36 @@
         <v>95</v>
       </c>
       <c r="I139" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="J139" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M139" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16">
       <c r="A140" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C140" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D140" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E140">
         <v>139</v>
       </c>
       <c r="F140" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G140">
         <v>51</v>
@@ -7519,33 +7939,36 @@
         <v>95</v>
       </c>
       <c r="I140" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="J140" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M140" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16">
       <c r="A141" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C141" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D141" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E141">
         <v>140</v>
       </c>
       <c r="F141" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G141">
         <v>51</v>
@@ -7554,33 +7977,36 @@
         <v>95</v>
       </c>
       <c r="I141" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="J141" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M141" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16">
       <c r="A142" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C142" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D142" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E142">
         <v>141</v>
       </c>
       <c r="F142" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G142">
         <v>51</v>
@@ -7589,33 +8015,36 @@
         <v>95</v>
       </c>
       <c r="I142" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="J142" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M142" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16">
       <c r="A143" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C143" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D143" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E143">
         <v>142</v>
       </c>
       <c r="F143" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G143">
         <v>51</v>
@@ -7624,33 +8053,36 @@
         <v>95</v>
       </c>
       <c r="I143" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="J143" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M143" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16">
       <c r="A144" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C144" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D144" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E144">
         <v>143</v>
       </c>
       <c r="F144" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G144">
         <v>51</v>
@@ -7659,33 +8091,36 @@
         <v>95</v>
       </c>
       <c r="I144" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="J144" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M144" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16">
       <c r="A145" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C145" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D145" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E145">
         <v>144</v>
       </c>
       <c r="F145" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G145">
         <v>51</v>
@@ -7694,33 +8129,36 @@
         <v>95</v>
       </c>
       <c r="I145" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="J145" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M145" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16">
       <c r="A146" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C146" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D146" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E146">
         <v>145</v>
       </c>
       <c r="F146" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G146">
         <v>51</v>
@@ -7729,33 +8167,36 @@
         <v>95</v>
       </c>
       <c r="I146" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="J146" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M146" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16">
       <c r="A147" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C147" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D147" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E147">
         <v>146</v>
       </c>
       <c r="F147" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G147">
         <v>51</v>
@@ -7764,33 +8205,36 @@
         <v>95</v>
       </c>
       <c r="I147" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="J147" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M147" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16">
       <c r="A148" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C148" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D148" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E148">
         <v>147</v>
       </c>
       <c r="F148" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G148">
         <v>51</v>
@@ -7799,33 +8243,36 @@
         <v>95</v>
       </c>
       <c r="I148" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="J148" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M148" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16">
       <c r="A149" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C149" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D149" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E149">
         <v>148</v>
       </c>
       <c r="F149" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G149">
         <v>53</v>
@@ -7834,33 +8281,36 @@
         <v>98</v>
       </c>
       <c r="I149" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="J149" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="M149" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13">
+        <v>692</v>
+      </c>
+      <c r="P149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16">
       <c r="A150" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B150" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C150" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D150" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E150">
         <v>149</v>
       </c>
       <c r="F150" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G150">
         <v>54</v>
@@ -7869,33 +8319,36 @@
         <v>99</v>
       </c>
       <c r="I150" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="J150" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="M150" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16">
       <c r="A151" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B151" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C151" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D151" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E151">
         <v>150</v>
       </c>
       <c r="F151" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G151">
         <v>54</v>
@@ -7904,33 +8357,36 @@
         <v>99</v>
       </c>
       <c r="I151" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="J151" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="M151" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16">
       <c r="A152" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B152" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C152" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D152" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E152">
         <v>151</v>
       </c>
       <c r="F152" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G152">
         <v>54</v>
@@ -7939,33 +8395,36 @@
         <v>99</v>
       </c>
       <c r="I152" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="J152" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="M152" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C153" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D153" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E153">
         <v>152</v>
       </c>
       <c r="F153" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G153">
         <v>55</v>
@@ -7974,33 +8433,36 @@
         <v>100</v>
       </c>
       <c r="I153" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="J153" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="M153" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C154" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D154" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E154">
         <v>153</v>
       </c>
       <c r="F154" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G154">
         <v>56</v>
@@ -8009,33 +8471,36 @@
         <v>101</v>
       </c>
       <c r="I154" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="J154" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="M154" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C155" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D155" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E155">
         <v>154</v>
       </c>
       <c r="F155" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G155">
         <v>57</v>
@@ -8044,33 +8509,36 @@
         <v>102</v>
       </c>
       <c r="I155" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="J155" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="M155" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16">
       <c r="A156" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C156" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D156" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E156">
         <v>155</v>
       </c>
       <c r="F156" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G156">
         <v>59</v>
@@ -8079,33 +8547,36 @@
         <v>104</v>
       </c>
       <c r="I156" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J156" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="M156" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C157" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D157" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E157">
         <v>156</v>
       </c>
       <c r="F157" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G157">
         <v>60</v>
@@ -8114,33 +8585,36 @@
         <v>105</v>
       </c>
       <c r="I157" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="J157" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="M157" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C158" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D158" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E158">
         <v>157</v>
       </c>
       <c r="F158" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G158">
         <v>61</v>
@@ -8149,33 +8623,36 @@
         <v>106</v>
       </c>
       <c r="I158" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="J158" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="M158" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16">
       <c r="A159" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B159" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C159" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D159" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E159">
         <v>158</v>
       </c>
       <c r="F159" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G159">
         <v>65</v>
@@ -8184,33 +8661,36 @@
         <v>111</v>
       </c>
       <c r="I159" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="J159" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="M159" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16">
       <c r="A160" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B160" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C160" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D160" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E160">
         <v>159</v>
       </c>
       <c r="F160" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G160">
         <v>65</v>
@@ -8219,33 +8699,36 @@
         <v>111</v>
       </c>
       <c r="I160" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="J160" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="M160" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16">
       <c r="A161" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C161" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D161" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E161">
         <v>160</v>
       </c>
       <c r="F161" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G161">
         <v>65</v>
@@ -8254,33 +8737,36 @@
         <v>111</v>
       </c>
       <c r="I161" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="J161" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="M161" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16">
       <c r="A162" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B162" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C162" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D162" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E162">
         <v>161</v>
       </c>
       <c r="F162" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G162">
         <v>66</v>
@@ -8289,33 +8775,36 @@
         <v>113</v>
       </c>
       <c r="I162" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="J162" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="M162" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16">
       <c r="A163" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B163" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C163" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D163" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E163">
         <v>162</v>
       </c>
       <c r="F163" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G163">
         <v>66</v>
@@ -8324,33 +8813,36 @@
         <v>113</v>
       </c>
       <c r="I163" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="J163" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="M163" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16">
       <c r="A164" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B164" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C164" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D164" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E164">
         <v>163</v>
       </c>
       <c r="F164" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G164">
         <v>66</v>
@@ -8359,33 +8851,36 @@
         <v>113</v>
       </c>
       <c r="I164" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="J164" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="M164" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16">
       <c r="A165" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B165" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C165" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D165" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E165">
         <v>164</v>
       </c>
       <c r="F165" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G165">
         <v>68</v>
@@ -8394,33 +8889,36 @@
         <v>115</v>
       </c>
       <c r="I165" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="J165" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="M165" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13">
+        <v>692</v>
+      </c>
+      <c r="P165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16">
       <c r="A166" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B166" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C166" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D166" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E166">
         <v>165</v>
       </c>
       <c r="F166" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G166">
         <v>68</v>
@@ -8429,33 +8927,36 @@
         <v>115</v>
       </c>
       <c r="I166" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="J166" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="M166" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13">
+        <v>692</v>
+      </c>
+      <c r="P166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16">
       <c r="A167" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B167" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C167" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D167" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E167">
         <v>166</v>
       </c>
       <c r="F167" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G167">
         <v>69</v>
@@ -8464,33 +8965,36 @@
         <v>117</v>
       </c>
       <c r="I167" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="J167" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="M167" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16">
       <c r="A168" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B168" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C168" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D168" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E168">
         <v>167</v>
       </c>
       <c r="F168" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G168">
         <v>70</v>
@@ -8499,33 +9003,36 @@
         <v>118</v>
       </c>
       <c r="I168" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J168" s="2">
         <v>45058.12305555555</v>
       </c>
       <c r="M168" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16">
       <c r="A169" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B169" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C169" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D169" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E169">
         <v>168</v>
       </c>
       <c r="F169" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G169">
         <v>70</v>
@@ -8534,33 +9041,36 @@
         <v>118</v>
       </c>
       <c r="I169" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J169" s="2">
         <v>45058.12305555555</v>
       </c>
       <c r="M169" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13">
+        <v>691</v>
+      </c>
+      <c r="P169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16">
       <c r="A170" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B170" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C170" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D170" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E170">
         <v>169</v>
       </c>
       <c r="F170" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G170">
         <v>71</v>
@@ -8569,13 +9079,16 @@
         <v>119</v>
       </c>
       <c r="I170" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="J170" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M170" t="s">
-        <v>690</v>
+        <v>691</v>
+      </c>
+      <c r="P170">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/files/separadas/repeat_p32.xlsx
+++ b/files/separadas/repeat_p32.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="694">
   <si>
     <t>p32_cod</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>_submission__tags</t>
+  </si>
+  <si>
+    <t>c1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -2628,13 +2631,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P170"/>
+  <dimension ref="A1:Q170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2683,25 +2686,28 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -2710,36 +2716,39 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="J2" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="M2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2748,36 +2757,39 @@
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="J3" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="M3" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -2786,36 +2798,39 @@
         <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="J4" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="M4" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2824,36 +2839,39 @@
         <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="J5" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="M5" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2862,36 +2880,39 @@
         <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="J6" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="M6" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -2900,36 +2921,39 @@
         <v>9</v>
       </c>
       <c r="I7" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="J7" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="M7" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D8" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -2938,36 +2962,39 @@
         <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="J8" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="M8" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D9" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -2976,36 +3003,39 @@
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="J9" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M9" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -3014,36 +3044,39 @@
         <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="J10" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M10" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D11" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -3052,36 +3085,39 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="J11" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M11" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D12" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -3090,36 +3126,39 @@
         <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="J12" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M12" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D13" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -3128,36 +3167,39 @@
         <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="J13" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M13" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C14" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D14" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G14">
         <v>6</v>
@@ -3166,36 +3208,39 @@
         <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="J14" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="M14" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C15" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D15" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G15">
         <v>6</v>
@@ -3204,36 +3249,39 @@
         <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="J15" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="M15" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C16" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D16" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G16">
         <v>6</v>
@@ -3242,36 +3290,39 @@
         <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="J16" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="M16" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C17" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D17" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G17">
         <v>7</v>
@@ -3280,36 +3331,39 @@
         <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="J17" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="M17" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C18" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D18" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G18">
         <v>9</v>
@@ -3318,36 +3372,39 @@
         <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="J18" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="M18" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C19" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D19" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G19">
         <v>10</v>
@@ -3356,36 +3413,39 @@
         <v>16</v>
       </c>
       <c r="I19" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="J19" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="M19" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C20" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D20" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G20">
         <v>11</v>
@@ -3394,36 +3454,39 @@
         <v>17</v>
       </c>
       <c r="I20" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="J20" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M20" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C21" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D21" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G21">
         <v>11</v>
@@ -3432,36 +3495,39 @@
         <v>17</v>
       </c>
       <c r="I21" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="J21" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M21" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C22" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D22" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G22">
         <v>11</v>
@@ -3470,36 +3536,39 @@
         <v>17</v>
       </c>
       <c r="I22" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="J22" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M22" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C23" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D23" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G23">
         <v>11</v>
@@ -3508,36 +3577,39 @@
         <v>17</v>
       </c>
       <c r="I23" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="J23" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M23" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C24" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D24" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G24">
         <v>11</v>
@@ -3546,36 +3618,39 @@
         <v>17</v>
       </c>
       <c r="I24" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="J24" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M24" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D25" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G25">
         <v>12</v>
@@ -3584,36 +3659,39 @@
         <v>18</v>
       </c>
       <c r="I25" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="J25" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="M25" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C26" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D26" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G26">
         <v>12</v>
@@ -3622,36 +3700,39 @@
         <v>18</v>
       </c>
       <c r="I26" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="J26" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="M26" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C27" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D27" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G27">
         <v>12</v>
@@ -3660,36 +3741,39 @@
         <v>18</v>
       </c>
       <c r="I27" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="J27" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="M27" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C28" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D28" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G28">
         <v>13</v>
@@ -3698,36 +3782,39 @@
         <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="J28" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="M28" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C29" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D29" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G29">
         <v>13</v>
@@ -3736,36 +3823,39 @@
         <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="J29" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="M29" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C30" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D30" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G30">
         <v>14</v>
@@ -3774,36 +3864,39 @@
         <v>21</v>
       </c>
       <c r="I30" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="J30" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M30" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D31" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G31">
         <v>14</v>
@@ -3812,36 +3905,39 @@
         <v>21</v>
       </c>
       <c r="I31" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="J31" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M31" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C32" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D32" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G32">
         <v>14</v>
@@ -3850,36 +3946,39 @@
         <v>21</v>
       </c>
       <c r="I32" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="J32" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M32" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D33" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G33">
         <v>14</v>
@@ -3888,36 +3987,39 @@
         <v>21</v>
       </c>
       <c r="I33" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="J33" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M33" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C34" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D34" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G34">
         <v>15</v>
@@ -3926,36 +4028,39 @@
         <v>22</v>
       </c>
       <c r="I34" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="J34" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M34" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D35" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G35">
         <v>15</v>
@@ -3964,36 +4069,39 @@
         <v>22</v>
       </c>
       <c r="I35" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="J35" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M35" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C36" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D36" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G36">
         <v>16</v>
@@ -4002,36 +4110,39 @@
         <v>25</v>
       </c>
       <c r="I36" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="J36" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="M36" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C37" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D37" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G37">
         <v>16</v>
@@ -4040,36 +4151,39 @@
         <v>25</v>
       </c>
       <c r="I37" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="J37" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="M37" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C38" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D38" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G38">
         <v>16</v>
@@ -4078,36 +4192,39 @@
         <v>25</v>
       </c>
       <c r="I38" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="J38" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="M38" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C39" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D39" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G39">
         <v>17</v>
@@ -4116,36 +4233,39 @@
         <v>26</v>
       </c>
       <c r="I39" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="J39" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="M39" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C40" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D40" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G40">
         <v>18</v>
@@ -4154,36 +4274,39 @@
         <v>27</v>
       </c>
       <c r="I40" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="J40" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="M40" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D41" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G41">
         <v>19</v>
@@ -4192,36 +4315,39 @@
         <v>30</v>
       </c>
       <c r="I41" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="J41" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="M41" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C42" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D42" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G42">
         <v>19</v>
@@ -4230,36 +4356,39 @@
         <v>30</v>
       </c>
       <c r="I42" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="J42" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="M42" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D43" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G43">
         <v>19</v>
@@ -4268,36 +4397,39 @@
         <v>30</v>
       </c>
       <c r="I43" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="J43" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="M43" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D44" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G44">
         <v>19</v>
@@ -4306,36 +4438,39 @@
         <v>30</v>
       </c>
       <c r="I44" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="J44" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="M44" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C45" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D45" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G45">
         <v>20</v>
@@ -4344,36 +4479,39 @@
         <v>33</v>
       </c>
       <c r="I45" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="J45" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="M45" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C46" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D46" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G46">
         <v>20</v>
@@ -4382,36 +4520,39 @@
         <v>33</v>
       </c>
       <c r="I46" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="J46" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="M46" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C47" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D47" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G47">
         <v>20</v>
@@ -4420,36 +4561,39 @@
         <v>33</v>
       </c>
       <c r="I47" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="J47" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="M47" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="Q47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C48" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D48" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G48">
         <v>20</v>
@@ -4458,36 +4602,39 @@
         <v>33</v>
       </c>
       <c r="I48" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="J48" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="M48" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="Q48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C49" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D49" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G49">
         <v>21</v>
@@ -4496,36 +4643,39 @@
         <v>34</v>
       </c>
       <c r="I49" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="J49" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="M49" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="Q49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B50" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C50" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D50" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G50">
         <v>21</v>
@@ -4534,36 +4684,39 @@
         <v>34</v>
       </c>
       <c r="I50" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="J50" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="M50" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="Q50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C51" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D51" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G51">
         <v>21</v>
@@ -4572,36 +4725,39 @@
         <v>34</v>
       </c>
       <c r="I51" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="J51" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="M51" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="Q51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C52" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D52" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G52">
         <v>22</v>
@@ -4610,36 +4766,39 @@
         <v>37</v>
       </c>
       <c r="I52" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="J52" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M52" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="Q52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D53" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G53">
         <v>22</v>
@@ -4648,36 +4807,39 @@
         <v>37</v>
       </c>
       <c r="I53" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="J53" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M53" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:16">
+      <c r="Q53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B54" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C54" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D54" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G54">
         <v>22</v>
@@ -4686,36 +4848,39 @@
         <v>37</v>
       </c>
       <c r="I54" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="J54" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M54" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:16">
+      <c r="Q54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B55" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C55" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D55" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G55">
         <v>23</v>
@@ -4724,36 +4889,39 @@
         <v>38</v>
       </c>
       <c r="I55" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J55" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M55" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:16">
+      <c r="Q55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C56" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D56" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G56">
         <v>23</v>
@@ -4762,36 +4930,39 @@
         <v>38</v>
       </c>
       <c r="I56" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J56" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M56" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:16">
+      <c r="Q56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B57" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C57" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D57" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G57">
         <v>24</v>
@@ -4800,36 +4971,39 @@
         <v>51</v>
       </c>
       <c r="I57" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J57" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M57" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:16">
+      <c r="Q57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B58" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C58" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D58" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G58">
         <v>24</v>
@@ -4838,36 +5012,39 @@
         <v>51</v>
       </c>
       <c r="I58" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J58" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M58" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:16">
+      <c r="Q58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B59" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C59" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D59" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G59">
         <v>24</v>
@@ -4876,36 +5053,39 @@
         <v>51</v>
       </c>
       <c r="I59" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J59" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M59" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:16">
+      <c r="Q59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B60" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C60" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D60" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G60">
         <v>24</v>
@@ -4914,36 +5094,39 @@
         <v>51</v>
       </c>
       <c r="I60" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J60" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M60" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:16">
+      <c r="Q60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B61" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C61" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D61" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G61">
         <v>26</v>
@@ -4952,36 +5135,39 @@
         <v>55</v>
       </c>
       <c r="I61" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J61" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="M61" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:16">
+      <c r="Q61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B62" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C62" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D62" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G62">
         <v>27</v>
@@ -4990,36 +5176,39 @@
         <v>56</v>
       </c>
       <c r="I62" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="J62" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="M62" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:16">
+      <c r="Q62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B63" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C63" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D63" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G63">
         <v>28</v>
@@ -5028,36 +5217,39 @@
         <v>57</v>
       </c>
       <c r="I63" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="J63" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="M63" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:16">
+      <c r="Q63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B64" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C64" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D64" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G64">
         <v>29</v>
@@ -5066,36 +5258,39 @@
         <v>58</v>
       </c>
       <c r="I64" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J64" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M64" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:16">
+      <c r="Q64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C65" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D65" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G65">
         <v>29</v>
@@ -5104,36 +5299,39 @@
         <v>58</v>
       </c>
       <c r="I65" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J65" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M65" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:16">
+      <c r="Q65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C66" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D66" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G66">
         <v>29</v>
@@ -5142,36 +5340,39 @@
         <v>58</v>
       </c>
       <c r="I66" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J66" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M66" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:16">
+      <c r="Q66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B67" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C67" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D67" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G67">
         <v>29</v>
@@ -5180,36 +5381,39 @@
         <v>58</v>
       </c>
       <c r="I67" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J67" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M67" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:16">
+      <c r="Q67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C68" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D68" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G68">
         <v>29</v>
@@ -5218,36 +5422,39 @@
         <v>58</v>
       </c>
       <c r="I68" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J68" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M68" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:16">
+      <c r="Q68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C69" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D69" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E69">
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G69">
         <v>30</v>
@@ -5256,36 +5463,39 @@
         <v>59</v>
       </c>
       <c r="I69" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J69" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M69" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:16">
+      <c r="Q69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C70" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D70" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E70">
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G70">
         <v>30</v>
@@ -5294,36 +5504,39 @@
         <v>59</v>
       </c>
       <c r="I70" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J70" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M70" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:16">
+      <c r="Q70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C71" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D71" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E71">
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G71">
         <v>30</v>
@@ -5332,36 +5545,39 @@
         <v>59</v>
       </c>
       <c r="I71" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J71" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M71" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:16">
+      <c r="Q71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C72" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D72" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E72">
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G72">
         <v>30</v>
@@ -5370,36 +5586,39 @@
         <v>59</v>
       </c>
       <c r="I72" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J72" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M72" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:16">
+      <c r="Q72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C73" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D73" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E73">
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G73">
         <v>30</v>
@@ -5408,36 +5627,39 @@
         <v>59</v>
       </c>
       <c r="I73" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J73" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M73" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:16">
+      <c r="Q73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C74" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D74" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E74">
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G74">
         <v>30</v>
@@ -5446,36 +5668,39 @@
         <v>59</v>
       </c>
       <c r="I74" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J74" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M74" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:16">
+      <c r="Q74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B75" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C75" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D75" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E75">
         <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G75">
         <v>30</v>
@@ -5484,36 +5709,39 @@
         <v>59</v>
       </c>
       <c r="I75" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J75" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M75" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:16">
+      <c r="Q75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C76" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D76" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E76">
         <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G76">
         <v>30</v>
@@ -5522,36 +5750,39 @@
         <v>59</v>
       </c>
       <c r="I76" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J76" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M76" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:16">
+      <c r="Q76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C77" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D77" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E77">
         <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G77">
         <v>30</v>
@@ -5560,36 +5791,39 @@
         <v>59</v>
       </c>
       <c r="I77" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J77" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M77" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:16">
+      <c r="Q77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B78" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C78" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D78" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E78">
         <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G78">
         <v>30</v>
@@ -5598,36 +5832,39 @@
         <v>59</v>
       </c>
       <c r="I78" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J78" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M78" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:16">
+      <c r="Q78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C79" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D79" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E79">
         <v>78</v>
       </c>
       <c r="F79" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G79">
         <v>30</v>
@@ -5636,36 +5873,39 @@
         <v>59</v>
       </c>
       <c r="I79" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J79" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M79" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:16">
+      <c r="Q79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B80" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C80" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D80" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E80">
         <v>79</v>
       </c>
       <c r="F80" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G80">
         <v>30</v>
@@ -5674,36 +5914,39 @@
         <v>59</v>
       </c>
       <c r="I80" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J80" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M80" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:16">
+      <c r="Q80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B81" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C81" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D81" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E81">
         <v>80</v>
       </c>
       <c r="F81" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G81">
         <v>31</v>
@@ -5712,36 +5955,39 @@
         <v>60</v>
       </c>
       <c r="I81" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="J81" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="M81" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:16">
+      <c r="Q81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B82" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C82" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D82" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E82">
         <v>81</v>
       </c>
       <c r="F82" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G82">
         <v>31</v>
@@ -5750,36 +5996,39 @@
         <v>60</v>
       </c>
       <c r="I82" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="J82" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="M82" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:16">
+      <c r="Q82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B83" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C83" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D83" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E83">
         <v>82</v>
       </c>
       <c r="F83" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G83">
         <v>32</v>
@@ -5788,36 +6037,39 @@
         <v>61</v>
       </c>
       <c r="I83" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="J83" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M83" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:16">
+      <c r="Q83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
       <c r="A84" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B84" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C84" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D84" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E84">
         <v>83</v>
       </c>
       <c r="F84" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G84">
         <v>33</v>
@@ -5826,36 +6078,39 @@
         <v>63</v>
       </c>
       <c r="I84" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J84" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M84" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:16">
+      <c r="Q84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
       <c r="A85" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B85" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C85" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D85" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E85">
         <v>84</v>
       </c>
       <c r="F85" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G85">
         <v>33</v>
@@ -5864,36 +6119,39 @@
         <v>63</v>
       </c>
       <c r="I85" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J85" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M85" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:16">
+      <c r="Q85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
       <c r="A86" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B86" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C86" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D86" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E86">
         <v>85</v>
       </c>
       <c r="F86" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G86">
         <v>33</v>
@@ -5902,36 +6160,39 @@
         <v>63</v>
       </c>
       <c r="I86" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J86" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M86" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:16">
+      <c r="Q86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
       <c r="A87" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B87" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C87" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D87" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E87">
         <v>86</v>
       </c>
       <c r="F87" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G87">
         <v>33</v>
@@ -5940,36 +6201,39 @@
         <v>63</v>
       </c>
       <c r="I87" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J87" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M87" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:16">
+      <c r="Q87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
       <c r="A88" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B88" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C88" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D88" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G88">
         <v>33</v>
@@ -5978,36 +6242,39 @@
         <v>63</v>
       </c>
       <c r="I88" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J88" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M88" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:16">
+      <c r="Q88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
       <c r="A89" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B89" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C89" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D89" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E89">
         <v>88</v>
       </c>
       <c r="F89" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G89">
         <v>33</v>
@@ -6016,36 +6283,39 @@
         <v>63</v>
       </c>
       <c r="I89" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J89" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M89" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:16">
+      <c r="Q89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
       <c r="A90" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B90" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C90" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D90" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E90">
         <v>89</v>
       </c>
       <c r="F90" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G90">
         <v>33</v>
@@ -6054,36 +6324,39 @@
         <v>63</v>
       </c>
       <c r="I90" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J90" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M90" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:16">
+      <c r="Q90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
       <c r="A91" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B91" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C91" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D91" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E91">
         <v>90</v>
       </c>
       <c r="F91" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G91">
         <v>33</v>
@@ -6092,36 +6365,39 @@
         <v>63</v>
       </c>
       <c r="I91" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J91" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M91" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:16">
+      <c r="Q91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
       <c r="A92" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B92" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C92" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D92" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E92">
         <v>91</v>
       </c>
       <c r="F92" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G92">
         <v>33</v>
@@ -6130,36 +6406,39 @@
         <v>63</v>
       </c>
       <c r="I92" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J92" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M92" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:16">
+      <c r="Q92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
       <c r="A93" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B93" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C93" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D93" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E93">
         <v>92</v>
       </c>
       <c r="F93" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G93">
         <v>33</v>
@@ -6168,36 +6447,39 @@
         <v>63</v>
       </c>
       <c r="I93" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J93" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M93" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:16">
+      <c r="Q93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
       <c r="A94" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B94" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C94" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D94" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E94">
         <v>93</v>
       </c>
       <c r="F94" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G94">
         <v>33</v>
@@ -6206,36 +6488,39 @@
         <v>63</v>
       </c>
       <c r="I94" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J94" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M94" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:16">
+      <c r="Q94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
       <c r="A95" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B95" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C95" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D95" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E95">
         <v>94</v>
       </c>
       <c r="F95" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G95">
         <v>33</v>
@@ -6244,36 +6529,39 @@
         <v>63</v>
       </c>
       <c r="I95" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J95" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M95" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:16">
+      <c r="Q95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
       <c r="A96" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B96" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C96" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D96" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E96">
         <v>95</v>
       </c>
       <c r="F96" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G96">
         <v>33</v>
@@ -6282,36 +6570,39 @@
         <v>63</v>
       </c>
       <c r="I96" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J96" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M96" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:16">
+      <c r="Q96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
       <c r="A97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B97" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C97" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D97" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E97">
         <v>96</v>
       </c>
       <c r="F97" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G97">
         <v>34</v>
@@ -6320,36 +6611,39 @@
         <v>64</v>
       </c>
       <c r="I97" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="J97" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="M97" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:16">
+      <c r="Q97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
       <c r="A98" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B98" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C98" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D98" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E98">
         <v>97</v>
       </c>
       <c r="F98" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G98">
         <v>35</v>
@@ -6358,36 +6652,39 @@
         <v>75</v>
       </c>
       <c r="I98" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="J98" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="M98" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:16">
+      <c r="Q98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
       <c r="A99" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B99" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C99" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D99" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E99">
         <v>98</v>
       </c>
       <c r="F99" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G99">
         <v>36</v>
@@ -6396,36 +6693,39 @@
         <v>77</v>
       </c>
       <c r="I99" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="J99" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="M99" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:16">
+      <c r="Q99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
       <c r="A100" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B100" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C100" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D100" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E100">
         <v>99</v>
       </c>
       <c r="F100" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G100">
         <v>37</v>
@@ -6434,36 +6734,39 @@
         <v>78</v>
       </c>
       <c r="I100" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="J100" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="M100" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:16">
+      <c r="Q100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
       <c r="A101" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B101" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C101" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D101" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E101">
         <v>100</v>
       </c>
       <c r="F101" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G101">
         <v>38</v>
@@ -6472,36 +6775,39 @@
         <v>80</v>
       </c>
       <c r="I101" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="J101" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M101" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:16">
+      <c r="Q101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
       <c r="A102" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B102" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C102" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D102" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E102">
         <v>101</v>
       </c>
       <c r="F102" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G102">
         <v>38</v>
@@ -6510,36 +6816,39 @@
         <v>80</v>
       </c>
       <c r="I102" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="J102" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M102" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:16">
+      <c r="Q102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
       <c r="A103" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B103" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C103" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D103" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E103">
         <v>102</v>
       </c>
       <c r="F103" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G103">
         <v>38</v>
@@ -6548,36 +6857,39 @@
         <v>80</v>
       </c>
       <c r="I103" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="J103" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M103" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:16">
+      <c r="Q103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
       <c r="A104" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B104" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C104" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D104" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E104">
         <v>103</v>
       </c>
       <c r="F104" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G104">
         <v>38</v>
@@ -6586,36 +6898,39 @@
         <v>80</v>
       </c>
       <c r="I104" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="J104" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M104" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:16">
+      <c r="Q104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
       <c r="A105" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B105" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C105" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D105" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E105">
         <v>104</v>
       </c>
       <c r="F105" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G105">
         <v>38</v>
@@ -6624,36 +6939,39 @@
         <v>80</v>
       </c>
       <c r="I105" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="J105" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M105" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:16">
+      <c r="Q105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17">
       <c r="A106" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B106" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C106" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D106" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G106">
         <v>38</v>
@@ -6662,36 +6980,39 @@
         <v>80</v>
       </c>
       <c r="I106" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="J106" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M106" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:16">
+      <c r="Q106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17">
       <c r="A107" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B107" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C107" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D107" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E107">
         <v>106</v>
       </c>
       <c r="F107" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G107">
         <v>38</v>
@@ -6700,36 +7021,39 @@
         <v>80</v>
       </c>
       <c r="I107" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="J107" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M107" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:16">
+      <c r="Q107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
       <c r="A108" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B108" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C108" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D108" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E108">
         <v>107</v>
       </c>
       <c r="F108" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G108">
         <v>38</v>
@@ -6738,36 +7062,39 @@
         <v>80</v>
       </c>
       <c r="I108" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="J108" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M108" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:16">
+      <c r="Q108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17">
       <c r="A109" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B109" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C109" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D109" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E109">
         <v>108</v>
       </c>
       <c r="F109" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G109">
         <v>39</v>
@@ -6776,36 +7103,39 @@
         <v>81</v>
       </c>
       <c r="I109" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="J109" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="M109" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:16">
+      <c r="Q109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
       <c r="A110" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B110" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C110" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D110" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E110">
         <v>109</v>
       </c>
       <c r="F110" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G110">
         <v>39</v>
@@ -6814,36 +7144,39 @@
         <v>81</v>
       </c>
       <c r="I110" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="J110" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="M110" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:16">
+      <c r="Q110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17">
       <c r="A111" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B111" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C111" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D111" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E111">
         <v>110</v>
       </c>
       <c r="F111" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G111">
         <v>39</v>
@@ -6852,36 +7185,39 @@
         <v>81</v>
       </c>
       <c r="I111" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="J111" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="M111" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:16">
+      <c r="Q111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17">
       <c r="A112" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B112" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C112" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D112" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E112">
         <v>111</v>
       </c>
       <c r="F112" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G112">
         <v>40</v>
@@ -6890,36 +7226,39 @@
         <v>82</v>
       </c>
       <c r="I112" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="J112" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="M112" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:16">
+      <c r="Q112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17">
       <c r="A113" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B113" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C113" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D113" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E113">
         <v>112</v>
       </c>
       <c r="F113" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G113">
         <v>41</v>
@@ -6928,36 +7267,39 @@
         <v>83</v>
       </c>
       <c r="I113" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="J113" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="M113" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:16">
+      <c r="Q113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17">
       <c r="A114" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B114" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C114" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D114" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E114">
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G114">
         <v>42</v>
@@ -6966,36 +7308,39 @@
         <v>84</v>
       </c>
       <c r="I114" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="J114" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="M114" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:16">
+      <c r="Q114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
       <c r="A115" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B115" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C115" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D115" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E115">
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G115">
         <v>44</v>
@@ -7004,36 +7349,39 @@
         <v>87</v>
       </c>
       <c r="I115" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="J115" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="M115" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:16">
+      <c r="Q115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17">
       <c r="A116" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B116" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C116" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D116" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G116">
         <v>45</v>
@@ -7042,36 +7390,39 @@
         <v>88</v>
       </c>
       <c r="I116" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="J116" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M116" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:16">
+      <c r="Q116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17">
       <c r="A117" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B117" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C117" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D117" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G117">
         <v>45</v>
@@ -7080,36 +7431,39 @@
         <v>88</v>
       </c>
       <c r="I117" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="J117" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M117" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:16">
+      <c r="Q117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17">
       <c r="A118" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B118" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C118" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D118" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E118">
         <v>117</v>
       </c>
       <c r="F118" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G118">
         <v>46</v>
@@ -7118,36 +7472,39 @@
         <v>90</v>
       </c>
       <c r="I118" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="J118" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M118" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:16">
+      <c r="Q118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17">
       <c r="A119" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B119" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C119" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D119" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E119">
         <v>118</v>
       </c>
       <c r="F119" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G119">
         <v>46</v>
@@ -7156,36 +7513,39 @@
         <v>90</v>
       </c>
       <c r="I119" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="J119" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M119" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:16">
+      <c r="Q119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17">
       <c r="A120" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B120" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C120" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D120" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E120">
         <v>119</v>
       </c>
       <c r="F120" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G120">
         <v>46</v>
@@ -7194,36 +7554,39 @@
         <v>90</v>
       </c>
       <c r="I120" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="J120" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M120" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:16">
+      <c r="Q120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
       <c r="A121" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B121" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C121" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D121" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E121">
         <v>120</v>
       </c>
       <c r="F121" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G121">
         <v>46</v>
@@ -7232,36 +7595,39 @@
         <v>90</v>
       </c>
       <c r="I121" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="J121" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M121" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:16">
+      <c r="Q121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17">
       <c r="A122" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B122" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C122" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D122" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E122">
         <v>121</v>
       </c>
       <c r="F122" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G122">
         <v>46</v>
@@ -7270,36 +7636,39 @@
         <v>90</v>
       </c>
       <c r="I122" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="J122" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M122" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:16">
+      <c r="Q122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17">
       <c r="A123" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B123" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C123" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D123" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E123">
         <v>122</v>
       </c>
       <c r="F123" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G123">
         <v>48</v>
@@ -7308,36 +7677,39 @@
         <v>92</v>
       </c>
       <c r="I123" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J123" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="M123" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:16">
+      <c r="Q123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17">
       <c r="A124" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B124" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C124" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D124" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E124">
         <v>123</v>
       </c>
       <c r="F124" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G124">
         <v>49</v>
@@ -7346,36 +7718,39 @@
         <v>93</v>
       </c>
       <c r="I124" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="J124" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="M124" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:16">
+      <c r="Q124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17">
       <c r="A125" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B125" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C125" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D125" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E125">
         <v>124</v>
       </c>
       <c r="F125" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G125">
         <v>49</v>
@@ -7384,36 +7759,39 @@
         <v>93</v>
       </c>
       <c r="I125" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="J125" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="M125" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:16">
+      <c r="Q125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17">
       <c r="A126" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B126" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C126" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D126" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E126">
         <v>125</v>
       </c>
       <c r="F126" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G126">
         <v>49</v>
@@ -7422,36 +7800,39 @@
         <v>93</v>
       </c>
       <c r="I126" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="J126" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="M126" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:16">
+      <c r="Q126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17">
       <c r="A127" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B127" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C127" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D127" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E127">
         <v>126</v>
       </c>
       <c r="F127" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G127">
         <v>49</v>
@@ -7460,36 +7841,39 @@
         <v>93</v>
       </c>
       <c r="I127" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="J127" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="M127" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:16">
+      <c r="Q127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17">
       <c r="A128" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B128" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C128" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D128" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E128">
         <v>127</v>
       </c>
       <c r="F128" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G128">
         <v>49</v>
@@ -7498,36 +7882,39 @@
         <v>93</v>
       </c>
       <c r="I128" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="J128" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="M128" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:16">
+      <c r="Q128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17">
       <c r="A129" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B129" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C129" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D129" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E129">
         <v>128</v>
       </c>
       <c r="F129" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G129">
         <v>50</v>
@@ -7536,36 +7923,39 @@
         <v>94</v>
       </c>
       <c r="I129" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="J129" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M129" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:16">
+      <c r="Q129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17">
       <c r="A130" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B130" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C130" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D130" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E130">
         <v>129</v>
       </c>
       <c r="F130" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G130">
         <v>50</v>
@@ -7574,33 +7964,36 @@
         <v>94</v>
       </c>
       <c r="I130" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="J130" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M130" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:16">
+      <c r="Q130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17">
       <c r="B131" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C131" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D131" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E131">
         <v>130</v>
       </c>
       <c r="F131" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G131">
         <v>50</v>
@@ -7609,33 +8002,36 @@
         <v>94</v>
       </c>
       <c r="I131" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="J131" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M131" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:16">
+      <c r="Q131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17">
       <c r="B132" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C132" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D132" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E132">
         <v>131</v>
       </c>
       <c r="F132" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G132">
         <v>50</v>
@@ -7644,33 +8040,36 @@
         <v>94</v>
       </c>
       <c r="I132" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="J132" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M132" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:16">
+      <c r="Q132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17">
       <c r="B133" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C133" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D133" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E133">
         <v>132</v>
       </c>
       <c r="F133" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G133">
         <v>50</v>
@@ -7679,33 +8078,36 @@
         <v>94</v>
       </c>
       <c r="I133" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="J133" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M133" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:16">
+      <c r="Q133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17">
       <c r="B134" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C134" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D134" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E134">
         <v>133</v>
       </c>
       <c r="F134" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G134">
         <v>50</v>
@@ -7714,33 +8116,36 @@
         <v>94</v>
       </c>
       <c r="I134" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="J134" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M134" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:16">
+      <c r="Q134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17">
       <c r="B135" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C135" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D135" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E135">
         <v>134</v>
       </c>
       <c r="F135" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G135">
         <v>50</v>
@@ -7749,36 +8154,39 @@
         <v>94</v>
       </c>
       <c r="I135" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="J135" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M135" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:16">
+      <c r="Q135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17">
       <c r="A136" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B136" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C136" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D136" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E136">
         <v>135</v>
       </c>
       <c r="F136" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G136">
         <v>51</v>
@@ -7787,36 +8195,39 @@
         <v>95</v>
       </c>
       <c r="I136" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="J136" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M136" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:16">
+      <c r="Q136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17">
       <c r="A137" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B137" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C137" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D137" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E137">
         <v>136</v>
       </c>
       <c r="F137" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G137">
         <v>51</v>
@@ -7825,36 +8236,39 @@
         <v>95</v>
       </c>
       <c r="I137" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="J137" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M137" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:16">
+      <c r="Q137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17">
       <c r="A138" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B138" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C138" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D138" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E138">
         <v>137</v>
       </c>
       <c r="F138" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G138">
         <v>51</v>
@@ -7863,36 +8277,39 @@
         <v>95</v>
       </c>
       <c r="I138" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="J138" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M138" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:16">
+      <c r="Q138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17">
       <c r="A139" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B139" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C139" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D139" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E139">
         <v>138</v>
       </c>
       <c r="F139" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G139">
         <v>51</v>
@@ -7901,36 +8318,39 @@
         <v>95</v>
       </c>
       <c r="I139" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="J139" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M139" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:16">
+      <c r="Q139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17">
       <c r="A140" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B140" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C140" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D140" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E140">
         <v>139</v>
       </c>
       <c r="F140" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G140">
         <v>51</v>
@@ -7939,36 +8359,39 @@
         <v>95</v>
       </c>
       <c r="I140" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="J140" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M140" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:16">
+      <c r="Q140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17">
       <c r="A141" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B141" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C141" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D141" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E141">
         <v>140</v>
       </c>
       <c r="F141" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G141">
         <v>51</v>
@@ -7977,36 +8400,39 @@
         <v>95</v>
       </c>
       <c r="I141" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="J141" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M141" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:16">
+      <c r="Q141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17">
       <c r="A142" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B142" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C142" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D142" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E142">
         <v>141</v>
       </c>
       <c r="F142" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G142">
         <v>51</v>
@@ -8015,36 +8441,39 @@
         <v>95</v>
       </c>
       <c r="I142" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="J142" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M142" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:16">
+      <c r="Q142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17">
       <c r="A143" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B143" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C143" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D143" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E143">
         <v>142</v>
       </c>
       <c r="F143" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G143">
         <v>51</v>
@@ -8053,36 +8482,39 @@
         <v>95</v>
       </c>
       <c r="I143" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="J143" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M143" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:16">
+      <c r="Q143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17">
       <c r="A144" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B144" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C144" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D144" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E144">
         <v>143</v>
       </c>
       <c r="F144" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G144">
         <v>51</v>
@@ -8091,36 +8523,39 @@
         <v>95</v>
       </c>
       <c r="I144" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="J144" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M144" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:16">
+      <c r="Q144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17">
       <c r="A145" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B145" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C145" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D145" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E145">
         <v>144</v>
       </c>
       <c r="F145" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G145">
         <v>51</v>
@@ -8129,36 +8564,39 @@
         <v>95</v>
       </c>
       <c r="I145" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="J145" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M145" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:16">
+      <c r="Q145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17">
       <c r="A146" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B146" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C146" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D146" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E146">
         <v>145</v>
       </c>
       <c r="F146" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G146">
         <v>51</v>
@@ -8167,36 +8605,39 @@
         <v>95</v>
       </c>
       <c r="I146" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="J146" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M146" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:16">
+      <c r="Q146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17">
       <c r="A147" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B147" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C147" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D147" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E147">
         <v>146</v>
       </c>
       <c r="F147" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G147">
         <v>51</v>
@@ -8205,36 +8646,39 @@
         <v>95</v>
       </c>
       <c r="I147" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="J147" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M147" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:16">
+      <c r="Q147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17">
       <c r="A148" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B148" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C148" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D148" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E148">
         <v>147</v>
       </c>
       <c r="F148" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G148">
         <v>51</v>
@@ -8243,36 +8687,39 @@
         <v>95</v>
       </c>
       <c r="I148" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="J148" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M148" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:16">
+      <c r="Q148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17">
       <c r="A149" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B149" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C149" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D149" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E149">
         <v>148</v>
       </c>
       <c r="F149" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G149">
         <v>53</v>
@@ -8281,36 +8728,39 @@
         <v>98</v>
       </c>
       <c r="I149" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="J149" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="M149" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:16">
+      <c r="Q149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17">
       <c r="A150" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B150" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C150" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D150" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E150">
         <v>149</v>
       </c>
       <c r="F150" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G150">
         <v>54</v>
@@ -8319,36 +8769,39 @@
         <v>99</v>
       </c>
       <c r="I150" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="J150" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="M150" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:16">
+      <c r="Q150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17">
       <c r="A151" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B151" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C151" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D151" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E151">
         <v>150</v>
       </c>
       <c r="F151" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G151">
         <v>54</v>
@@ -8357,36 +8810,39 @@
         <v>99</v>
       </c>
       <c r="I151" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="J151" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="M151" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:16">
+      <c r="Q151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17">
       <c r="A152" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B152" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C152" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D152" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E152">
         <v>151</v>
       </c>
       <c r="F152" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G152">
         <v>54</v>
@@ -8395,36 +8851,39 @@
         <v>99</v>
       </c>
       <c r="I152" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="J152" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="M152" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:16">
+      <c r="Q152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17">
       <c r="A153" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B153" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C153" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D153" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E153">
         <v>152</v>
       </c>
       <c r="F153" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G153">
         <v>55</v>
@@ -8433,36 +8892,39 @@
         <v>100</v>
       </c>
       <c r="I153" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="J153" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="M153" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:16">
+      <c r="Q153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17">
       <c r="A154" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B154" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C154" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D154" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E154">
         <v>153</v>
       </c>
       <c r="F154" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G154">
         <v>56</v>
@@ -8471,36 +8933,39 @@
         <v>101</v>
       </c>
       <c r="I154" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="J154" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="M154" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:16">
+      <c r="Q154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17">
       <c r="A155" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B155" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C155" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D155" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E155">
         <v>154</v>
       </c>
       <c r="F155" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G155">
         <v>57</v>
@@ -8509,36 +8974,39 @@
         <v>102</v>
       </c>
       <c r="I155" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J155" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="M155" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:16">
+      <c r="Q155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17">
       <c r="A156" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B156" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C156" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D156" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E156">
         <v>155</v>
       </c>
       <c r="F156" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G156">
         <v>59</v>
@@ -8547,36 +9015,39 @@
         <v>104</v>
       </c>
       <c r="I156" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="J156" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="M156" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:16">
+      <c r="Q156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17">
       <c r="A157" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B157" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C157" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D157" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E157">
         <v>156</v>
       </c>
       <c r="F157" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G157">
         <v>60</v>
@@ -8585,36 +9056,39 @@
         <v>105</v>
       </c>
       <c r="I157" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="J157" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="M157" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:16">
+      <c r="Q157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17">
       <c r="A158" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B158" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D158" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E158">
         <v>157</v>
       </c>
       <c r="F158" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G158">
         <v>61</v>
@@ -8623,36 +9097,39 @@
         <v>106</v>
       </c>
       <c r="I158" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="J158" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="M158" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:16">
+      <c r="Q158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17">
       <c r="A159" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C159" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D159" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E159">
         <v>158</v>
       </c>
       <c r="F159" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G159">
         <v>64</v>
@@ -8661,36 +9138,39 @@
         <v>111</v>
       </c>
       <c r="I159" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="J159" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="M159" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:16">
+      <c r="Q159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17">
       <c r="A160" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C160" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D160" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E160">
         <v>159</v>
       </c>
       <c r="F160" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G160">
         <v>64</v>
@@ -8699,36 +9179,39 @@
         <v>111</v>
       </c>
       <c r="I160" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="J160" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="M160" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:16">
+      <c r="Q160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17">
       <c r="A161" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C161" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D161" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E161">
         <v>160</v>
       </c>
       <c r="F161" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G161">
         <v>64</v>
@@ -8737,36 +9220,39 @@
         <v>111</v>
       </c>
       <c r="I161" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="J161" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="M161" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:16">
+      <c r="Q161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17">
       <c r="A162" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B162" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C162" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D162" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E162">
         <v>161</v>
       </c>
       <c r="F162" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G162">
         <v>65</v>
@@ -8775,36 +9261,39 @@
         <v>113</v>
       </c>
       <c r="I162" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="J162" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="M162" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:16">
+      <c r="Q162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17">
       <c r="A163" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C163" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D163" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E163">
         <v>162</v>
       </c>
       <c r="F163" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G163">
         <v>65</v>
@@ -8813,36 +9302,39 @@
         <v>113</v>
       </c>
       <c r="I163" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="J163" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="M163" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:16">
+      <c r="Q163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17">
       <c r="A164" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C164" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D164" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E164">
         <v>163</v>
       </c>
       <c r="F164" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G164">
         <v>65</v>
@@ -8851,36 +9343,39 @@
         <v>113</v>
       </c>
       <c r="I164" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="J164" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="M164" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:16">
+      <c r="Q164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17">
       <c r="A165" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C165" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D165" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E165">
         <v>164</v>
       </c>
       <c r="F165" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G165">
         <v>67</v>
@@ -8889,36 +9384,39 @@
         <v>115</v>
       </c>
       <c r="I165" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="J165" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="M165" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:16">
+      <c r="Q165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17">
       <c r="A166" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C166" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D166" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E166">
         <v>165</v>
       </c>
       <c r="F166" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G166">
         <v>67</v>
@@ -8927,36 +9425,39 @@
         <v>115</v>
       </c>
       <c r="I166" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="J166" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="M166" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:16">
+      <c r="Q166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17">
       <c r="A167" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C167" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D167" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E167">
         <v>166</v>
       </c>
       <c r="F167" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G167">
         <v>68</v>
@@ -8965,36 +9466,39 @@
         <v>117</v>
       </c>
       <c r="I167" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J167" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="M167" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:16">
+      <c r="Q167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17">
       <c r="A168" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C168" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D168" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E168">
         <v>167</v>
       </c>
       <c r="F168" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G168">
         <v>69</v>
@@ -9003,36 +9507,39 @@
         <v>118</v>
       </c>
       <c r="I168" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="J168" s="2">
         <v>45058.12305555555</v>
       </c>
       <c r="M168" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:16">
+      <c r="Q168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17">
       <c r="A169" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C169" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D169" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E169">
         <v>168</v>
       </c>
       <c r="F169" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G169">
         <v>69</v>
@@ -9041,36 +9548,39 @@
         <v>118</v>
       </c>
       <c r="I169" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="J169" s="2">
         <v>45058.12305555555</v>
       </c>
       <c r="M169" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:16">
+      <c r="Q169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17">
       <c r="A170" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C170" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D170" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E170">
         <v>169</v>
       </c>
       <c r="F170" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G170">
         <v>70</v>
@@ -9079,15 +9589,18 @@
         <v>119</v>
       </c>
       <c r="I170" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="J170" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M170" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P170">
+        <v>0</v>
+      </c>
+      <c r="Q170">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p32.xlsx
+++ b/files/separadas/repeat_p32.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="695">
   <si>
     <t>p32_cod</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>c1</t>
+  </si>
+  <si>
+    <t>l1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -2631,13 +2634,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q170"/>
+  <dimension ref="A1:R170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2689,25 +2692,28 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -2716,13 +2722,13 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="J2" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="M2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -2730,25 +2736,28 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2757,13 +2766,13 @@
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="J3" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="M3" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -2771,25 +2780,28 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -2798,13 +2810,13 @@
         <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="J4" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="M4" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -2812,25 +2824,28 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2839,13 +2854,13 @@
         <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="J5" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="M5" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -2853,25 +2868,28 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2880,13 +2898,13 @@
         <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="J6" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="M6" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -2894,25 +2912,28 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -2921,13 +2942,13 @@
         <v>9</v>
       </c>
       <c r="I7" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="J7" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="M7" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -2935,25 +2956,28 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -2962,13 +2986,13 @@
         <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="J8" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="M8" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -2976,25 +3000,28 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D9" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -3003,13 +3030,13 @@
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="J9" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M9" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -3017,25 +3044,28 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -3044,13 +3074,13 @@
         <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="J10" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M10" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -3058,25 +3088,28 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D11" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -3085,13 +3118,13 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="J11" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M11" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -3099,25 +3132,28 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D12" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -3126,13 +3162,13 @@
         <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="J12" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M12" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -3140,25 +3176,28 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D13" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -3167,13 +3206,13 @@
         <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="J13" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M13" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -3181,25 +3220,28 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C14" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D14" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G14">
         <v>6</v>
@@ -3208,13 +3250,13 @@
         <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="J14" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="M14" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -3222,25 +3264,28 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C15" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D15" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G15">
         <v>6</v>
@@ -3249,13 +3294,13 @@
         <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="J15" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="M15" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -3263,25 +3308,28 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C16" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D16" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G16">
         <v>6</v>
@@ -3290,13 +3338,13 @@
         <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="J16" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="M16" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -3304,25 +3352,28 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C17" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D17" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G17">
         <v>7</v>
@@ -3331,13 +3382,13 @@
         <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="J17" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="M17" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -3345,25 +3396,28 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C18" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D18" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G18">
         <v>9</v>
@@ -3372,13 +3426,13 @@
         <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="J18" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="M18" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -3386,25 +3440,28 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D19" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G19">
         <v>10</v>
@@ -3413,13 +3470,13 @@
         <v>16</v>
       </c>
       <c r="I19" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="J19" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="M19" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -3427,25 +3484,28 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C20" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D20" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G20">
         <v>11</v>
@@ -3454,13 +3514,13 @@
         <v>17</v>
       </c>
       <c r="I20" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="J20" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M20" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -3468,25 +3528,28 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C21" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D21" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G21">
         <v>11</v>
@@ -3495,13 +3558,13 @@
         <v>17</v>
       </c>
       <c r="I21" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="J21" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M21" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -3509,25 +3572,28 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C22" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D22" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G22">
         <v>11</v>
@@ -3536,13 +3602,13 @@
         <v>17</v>
       </c>
       <c r="I22" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="J22" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M22" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -3550,25 +3616,28 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C23" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D23" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G23">
         <v>11</v>
@@ -3577,13 +3646,13 @@
         <v>17</v>
       </c>
       <c r="I23" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="J23" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M23" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -3591,25 +3660,28 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C24" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D24" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G24">
         <v>11</v>
@@ -3618,13 +3690,13 @@
         <v>17</v>
       </c>
       <c r="I24" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="J24" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M24" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -3632,25 +3704,28 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D25" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G25">
         <v>12</v>
@@ -3659,13 +3734,13 @@
         <v>18</v>
       </c>
       <c r="I25" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="J25" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="M25" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -3673,25 +3748,28 @@
       <c r="Q25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C26" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D26" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G26">
         <v>12</v>
@@ -3700,13 +3778,13 @@
         <v>18</v>
       </c>
       <c r="I26" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="J26" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="M26" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -3714,25 +3792,28 @@
       <c r="Q26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="R26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C27" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D27" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G27">
         <v>12</v>
@@ -3741,13 +3822,13 @@
         <v>18</v>
       </c>
       <c r="I27" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="J27" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="M27" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -3755,25 +3836,28 @@
       <c r="Q27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C28" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D28" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G28">
         <v>13</v>
@@ -3782,13 +3866,13 @@
         <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="J28" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="M28" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -3796,25 +3880,28 @@
       <c r="Q28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="R28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C29" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D29" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G29">
         <v>13</v>
@@ -3823,13 +3910,13 @@
         <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="J29" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="M29" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -3837,25 +3924,28 @@
       <c r="Q29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C30" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D30" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G30">
         <v>14</v>
@@ -3864,13 +3954,13 @@
         <v>21</v>
       </c>
       <c r="I30" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="J30" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M30" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -3878,25 +3968,28 @@
       <c r="Q30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C31" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D31" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G31">
         <v>14</v>
@@ -3905,13 +3998,13 @@
         <v>21</v>
       </c>
       <c r="I31" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="J31" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M31" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -3919,25 +4012,28 @@
       <c r="Q31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="R31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C32" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D32" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G32">
         <v>14</v>
@@ -3946,13 +4042,13 @@
         <v>21</v>
       </c>
       <c r="I32" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="J32" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M32" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -3960,25 +4056,28 @@
       <c r="Q32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="R32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D33" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G33">
         <v>14</v>
@@ -3987,13 +4086,13 @@
         <v>21</v>
       </c>
       <c r="I33" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="J33" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M33" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -4001,25 +4100,28 @@
       <c r="Q33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="R33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C34" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D34" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G34">
         <v>15</v>
@@ -4028,13 +4130,13 @@
         <v>22</v>
       </c>
       <c r="I34" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="J34" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M34" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -4042,25 +4144,28 @@
       <c r="Q34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="R34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D35" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G35">
         <v>15</v>
@@ -4069,13 +4174,13 @@
         <v>22</v>
       </c>
       <c r="I35" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="J35" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M35" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -4083,25 +4188,28 @@
       <c r="Q35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="R35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C36" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D36" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G36">
         <v>16</v>
@@ -4110,13 +4218,13 @@
         <v>25</v>
       </c>
       <c r="I36" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="J36" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="M36" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -4124,25 +4232,28 @@
       <c r="Q36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="R36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C37" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D37" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G37">
         <v>16</v>
@@ -4151,13 +4262,13 @@
         <v>25</v>
       </c>
       <c r="I37" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="J37" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="M37" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -4165,25 +4276,28 @@
       <c r="Q37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="R37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C38" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D38" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G38">
         <v>16</v>
@@ -4192,13 +4306,13 @@
         <v>25</v>
       </c>
       <c r="I38" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="J38" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="M38" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -4206,25 +4320,28 @@
       <c r="Q38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="R38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C39" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D39" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G39">
         <v>17</v>
@@ -4233,13 +4350,13 @@
         <v>26</v>
       </c>
       <c r="I39" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="J39" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="M39" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -4247,25 +4364,28 @@
       <c r="Q39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="R39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C40" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D40" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G40">
         <v>18</v>
@@ -4274,13 +4394,13 @@
         <v>27</v>
       </c>
       <c r="I40" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="J40" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="M40" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -4288,25 +4408,28 @@
       <c r="Q40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="R40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D41" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G41">
         <v>19</v>
@@ -4315,13 +4438,13 @@
         <v>30</v>
       </c>
       <c r="I41" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="J41" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="M41" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -4329,25 +4452,28 @@
       <c r="Q41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="R41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C42" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D42" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G42">
         <v>19</v>
@@ -4356,13 +4482,13 @@
         <v>30</v>
       </c>
       <c r="I42" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="J42" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="M42" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -4370,25 +4496,28 @@
       <c r="Q42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="R42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D43" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G43">
         <v>19</v>
@@ -4397,13 +4526,13 @@
         <v>30</v>
       </c>
       <c r="I43" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="J43" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="M43" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P43">
         <v>0</v>
@@ -4411,25 +4540,28 @@
       <c r="Q43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="R43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C44" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D44" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G44">
         <v>19</v>
@@ -4438,13 +4570,13 @@
         <v>30</v>
       </c>
       <c r="I44" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="J44" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="M44" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P44">
         <v>0</v>
@@ -4452,25 +4584,28 @@
       <c r="Q44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="R44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C45" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D45" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G45">
         <v>20</v>
@@ -4479,13 +4614,13 @@
         <v>33</v>
       </c>
       <c r="I45" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="J45" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="M45" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -4493,25 +4628,28 @@
       <c r="Q45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="R45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C46" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D46" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G46">
         <v>20</v>
@@ -4520,13 +4658,13 @@
         <v>33</v>
       </c>
       <c r="I46" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="J46" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="M46" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -4534,25 +4672,28 @@
       <c r="Q46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="R46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C47" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D47" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G47">
         <v>20</v>
@@ -4561,13 +4702,13 @@
         <v>33</v>
       </c>
       <c r="I47" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="J47" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="M47" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -4575,25 +4716,28 @@
       <c r="Q47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:17">
+      <c r="R47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C48" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D48" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G48">
         <v>20</v>
@@ -4602,13 +4746,13 @@
         <v>33</v>
       </c>
       <c r="I48" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="J48" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="M48" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -4616,25 +4760,28 @@
       <c r="Q48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:17">
+      <c r="R48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C49" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D49" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G49">
         <v>21</v>
@@ -4643,13 +4790,13 @@
         <v>34</v>
       </c>
       <c r="I49" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="J49" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="M49" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -4657,25 +4804,28 @@
       <c r="Q49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:17">
+      <c r="R49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C50" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D50" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G50">
         <v>21</v>
@@ -4684,13 +4834,13 @@
         <v>34</v>
       </c>
       <c r="I50" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="J50" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="M50" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -4698,25 +4848,28 @@
       <c r="Q50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:17">
+      <c r="R50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C51" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D51" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G51">
         <v>21</v>
@@ -4725,13 +4878,13 @@
         <v>34</v>
       </c>
       <c r="I51" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="J51" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="M51" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -4739,25 +4892,28 @@
       <c r="Q51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:17">
+      <c r="R51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C52" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D52" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G52">
         <v>22</v>
@@ -4766,13 +4922,13 @@
         <v>37</v>
       </c>
       <c r="I52" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J52" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M52" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -4780,25 +4936,28 @@
       <c r="Q52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:17">
+      <c r="R52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C53" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D53" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G53">
         <v>22</v>
@@ -4807,13 +4966,13 @@
         <v>37</v>
       </c>
       <c r="I53" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J53" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M53" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P53">
         <v>0</v>
@@ -4821,25 +4980,28 @@
       <c r="Q53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:17">
+      <c r="R53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C54" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D54" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G54">
         <v>22</v>
@@ -4848,13 +5010,13 @@
         <v>37</v>
       </c>
       <c r="I54" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J54" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M54" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P54">
         <v>0</v>
@@ -4862,25 +5024,28 @@
       <c r="Q54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:17">
+      <c r="R54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C55" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D55" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G55">
         <v>23</v>
@@ -4889,13 +5054,13 @@
         <v>38</v>
       </c>
       <c r="I55" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J55" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M55" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P55">
         <v>0</v>
@@ -4903,25 +5068,28 @@
       <c r="Q55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:17">
+      <c r="R55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C56" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D56" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G56">
         <v>23</v>
@@ -4930,13 +5098,13 @@
         <v>38</v>
       </c>
       <c r="I56" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J56" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M56" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -4944,25 +5112,28 @@
       <c r="Q56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:17">
+      <c r="R56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C57" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D57" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G57">
         <v>24</v>
@@ -4971,13 +5142,13 @@
         <v>51</v>
       </c>
       <c r="I57" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J57" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M57" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -4985,25 +5156,28 @@
       <c r="Q57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:17">
+      <c r="R57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C58" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D58" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G58">
         <v>24</v>
@@ -5012,13 +5186,13 @@
         <v>51</v>
       </c>
       <c r="I58" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J58" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M58" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="P58">
         <v>0</v>
@@ -5026,25 +5200,28 @@
       <c r="Q58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:17">
+      <c r="R58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C59" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D59" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G59">
         <v>24</v>
@@ -5053,13 +5230,13 @@
         <v>51</v>
       </c>
       <c r="I59" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J59" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M59" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="P59">
         <v>0</v>
@@ -5067,25 +5244,28 @@
       <c r="Q59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:17">
+      <c r="R59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C60" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D60" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G60">
         <v>24</v>
@@ -5094,13 +5274,13 @@
         <v>51</v>
       </c>
       <c r="I60" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J60" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M60" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="P60">
         <v>0</v>
@@ -5108,25 +5288,28 @@
       <c r="Q60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:17">
+      <c r="R60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C61" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D61" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G61">
         <v>26</v>
@@ -5135,13 +5318,13 @@
         <v>55</v>
       </c>
       <c r="I61" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="J61" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="M61" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P61">
         <v>0</v>
@@ -5149,25 +5332,28 @@
       <c r="Q61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:17">
+      <c r="R61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C62" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D62" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G62">
         <v>27</v>
@@ -5176,13 +5362,13 @@
         <v>56</v>
       </c>
       <c r="I62" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="J62" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="M62" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -5190,25 +5376,28 @@
       <c r="Q62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:17">
+      <c r="R62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B63" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C63" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D63" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G63">
         <v>28</v>
@@ -5217,13 +5406,13 @@
         <v>57</v>
       </c>
       <c r="I63" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J63" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="M63" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -5231,25 +5420,28 @@
       <c r="Q63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:17">
+      <c r="R63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B64" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C64" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D64" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G64">
         <v>29</v>
@@ -5258,13 +5450,13 @@
         <v>58</v>
       </c>
       <c r="I64" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J64" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M64" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P64">
         <v>0</v>
@@ -5272,25 +5464,28 @@
       <c r="Q64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:17">
+      <c r="R64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B65" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C65" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D65" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G65">
         <v>29</v>
@@ -5299,13 +5494,13 @@
         <v>58</v>
       </c>
       <c r="I65" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J65" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M65" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P65">
         <v>0</v>
@@ -5313,25 +5508,28 @@
       <c r="Q65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:17">
+      <c r="R65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C66" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D66" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G66">
         <v>29</v>
@@ -5340,13 +5538,13 @@
         <v>58</v>
       </c>
       <c r="I66" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J66" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M66" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P66">
         <v>0</v>
@@ -5354,25 +5552,28 @@
       <c r="Q66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:17">
+      <c r="R66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C67" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D67" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G67">
         <v>29</v>
@@ -5381,13 +5582,13 @@
         <v>58</v>
       </c>
       <c r="I67" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J67" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M67" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -5395,25 +5596,28 @@
       <c r="Q67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:17">
+      <c r="R67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B68" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C68" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D68" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G68">
         <v>29</v>
@@ -5422,13 +5626,13 @@
         <v>58</v>
       </c>
       <c r="I68" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J68" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M68" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -5436,25 +5640,28 @@
       <c r="Q68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:17">
+      <c r="R68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B69" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C69" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D69" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E69">
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G69">
         <v>30</v>
@@ -5463,13 +5670,13 @@
         <v>59</v>
       </c>
       <c r="I69" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="J69" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M69" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P69">
         <v>0</v>
@@ -5477,25 +5684,28 @@
       <c r="Q69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:17">
+      <c r="R69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B70" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C70" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D70" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E70">
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G70">
         <v>30</v>
@@ -5504,13 +5714,13 @@
         <v>59</v>
       </c>
       <c r="I70" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="J70" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M70" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P70">
         <v>0</v>
@@ -5518,25 +5728,28 @@
       <c r="Q70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:17">
+      <c r="R70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C71" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D71" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E71">
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G71">
         <v>30</v>
@@ -5545,13 +5758,13 @@
         <v>59</v>
       </c>
       <c r="I71" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="J71" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M71" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P71">
         <v>0</v>
@@ -5559,25 +5772,28 @@
       <c r="Q71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:17">
+      <c r="R71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B72" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C72" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D72" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E72">
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G72">
         <v>30</v>
@@ -5586,13 +5802,13 @@
         <v>59</v>
       </c>
       <c r="I72" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="J72" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M72" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P72">
         <v>0</v>
@@ -5600,25 +5816,28 @@
       <c r="Q72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:17">
+      <c r="R72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B73" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C73" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D73" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E73">
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G73">
         <v>30</v>
@@ -5627,13 +5846,13 @@
         <v>59</v>
       </c>
       <c r="I73" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="J73" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M73" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -5641,25 +5860,28 @@
       <c r="Q73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:17">
+      <c r="R73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B74" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C74" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D74" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E74">
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G74">
         <v>30</v>
@@ -5668,13 +5890,13 @@
         <v>59</v>
       </c>
       <c r="I74" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="J74" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M74" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P74">
         <v>0</v>
@@ -5682,25 +5904,28 @@
       <c r="Q74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:17">
+      <c r="R74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B75" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C75" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D75" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E75">
         <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G75">
         <v>30</v>
@@ -5709,13 +5934,13 @@
         <v>59</v>
       </c>
       <c r="I75" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="J75" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M75" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P75">
         <v>0</v>
@@ -5723,25 +5948,28 @@
       <c r="Q75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:17">
+      <c r="R75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B76" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C76" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D76" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E76">
         <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G76">
         <v>30</v>
@@ -5750,13 +5978,13 @@
         <v>59</v>
       </c>
       <c r="I76" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="J76" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M76" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P76">
         <v>0</v>
@@ -5764,25 +5992,28 @@
       <c r="Q76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:17">
+      <c r="R76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B77" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C77" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D77" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E77">
         <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G77">
         <v>30</v>
@@ -5791,13 +6022,13 @@
         <v>59</v>
       </c>
       <c r="I77" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="J77" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M77" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -5805,25 +6036,28 @@
       <c r="Q77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:17">
+      <c r="R77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B78" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C78" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D78" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E78">
         <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G78">
         <v>30</v>
@@ -5832,13 +6066,13 @@
         <v>59</v>
       </c>
       <c r="I78" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="J78" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M78" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P78">
         <v>0</v>
@@ -5846,25 +6080,28 @@
       <c r="Q78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:17">
+      <c r="R78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B79" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C79" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D79" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E79">
         <v>78</v>
       </c>
       <c r="F79" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G79">
         <v>30</v>
@@ -5873,13 +6110,13 @@
         <v>59</v>
       </c>
       <c r="I79" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="J79" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M79" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P79">
         <v>0</v>
@@ -5887,25 +6124,28 @@
       <c r="Q79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:17">
+      <c r="R79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B80" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C80" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D80" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E80">
         <v>79</v>
       </c>
       <c r="F80" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G80">
         <v>30</v>
@@ -5914,13 +6154,13 @@
         <v>59</v>
       </c>
       <c r="I80" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="J80" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M80" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P80">
         <v>0</v>
@@ -5928,25 +6168,28 @@
       <c r="Q80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:17">
+      <c r="R80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B81" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C81" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D81" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E81">
         <v>80</v>
       </c>
       <c r="F81" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G81">
         <v>31</v>
@@ -5955,13 +6198,13 @@
         <v>60</v>
       </c>
       <c r="I81" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="J81" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="M81" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P81">
         <v>0</v>
@@ -5969,25 +6212,28 @@
       <c r="Q81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:17">
+      <c r="R81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B82" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C82" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D82" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E82">
         <v>81</v>
       </c>
       <c r="F82" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G82">
         <v>31</v>
@@ -5996,13 +6242,13 @@
         <v>60</v>
       </c>
       <c r="I82" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="J82" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="M82" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P82">
         <v>0</v>
@@ -6010,25 +6256,28 @@
       <c r="Q82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:17">
+      <c r="R82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B83" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C83" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D83" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E83">
         <v>82</v>
       </c>
       <c r="F83" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G83">
         <v>32</v>
@@ -6037,13 +6286,13 @@
         <v>61</v>
       </c>
       <c r="I83" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J83" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M83" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -6051,25 +6300,28 @@
       <c r="Q83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:17">
+      <c r="R83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B84" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C84" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D84" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E84">
         <v>83</v>
       </c>
       <c r="F84" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G84">
         <v>33</v>
@@ -6078,13 +6330,13 @@
         <v>63</v>
       </c>
       <c r="I84" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="J84" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M84" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P84">
         <v>0</v>
@@ -6092,25 +6344,28 @@
       <c r="Q84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:17">
+      <c r="R84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B85" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C85" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D85" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E85">
         <v>84</v>
       </c>
       <c r="F85" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G85">
         <v>33</v>
@@ -6119,13 +6374,13 @@
         <v>63</v>
       </c>
       <c r="I85" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="J85" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M85" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P85">
         <v>0</v>
@@ -6133,25 +6388,28 @@
       <c r="Q85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:17">
+      <c r="R85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B86" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C86" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D86" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E86">
         <v>85</v>
       </c>
       <c r="F86" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G86">
         <v>33</v>
@@ -6160,13 +6418,13 @@
         <v>63</v>
       </c>
       <c r="I86" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="J86" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M86" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P86">
         <v>0</v>
@@ -6174,25 +6432,28 @@
       <c r="Q86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:17">
+      <c r="R86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B87" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C87" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D87" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E87">
         <v>86</v>
       </c>
       <c r="F87" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G87">
         <v>33</v>
@@ -6201,13 +6462,13 @@
         <v>63</v>
       </c>
       <c r="I87" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="J87" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M87" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P87">
         <v>0</v>
@@ -6215,25 +6476,28 @@
       <c r="Q87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:17">
+      <c r="R87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B88" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C88" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D88" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G88">
         <v>33</v>
@@ -6242,13 +6506,13 @@
         <v>63</v>
       </c>
       <c r="I88" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="J88" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M88" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P88">
         <v>0</v>
@@ -6256,25 +6520,28 @@
       <c r="Q88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:17">
+      <c r="R88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
       <c r="A89" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B89" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C89" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D89" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E89">
         <v>88</v>
       </c>
       <c r="F89" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G89">
         <v>33</v>
@@ -6283,13 +6550,13 @@
         <v>63</v>
       </c>
       <c r="I89" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="J89" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M89" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P89">
         <v>0</v>
@@ -6297,25 +6564,28 @@
       <c r="Q89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:17">
+      <c r="R89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
       <c r="A90" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B90" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C90" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D90" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E90">
         <v>89</v>
       </c>
       <c r="F90" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G90">
         <v>33</v>
@@ -6324,13 +6594,13 @@
         <v>63</v>
       </c>
       <c r="I90" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="J90" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M90" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P90">
         <v>0</v>
@@ -6338,25 +6608,28 @@
       <c r="Q90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:17">
+      <c r="R90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
       <c r="A91" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C91" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D91" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E91">
         <v>90</v>
       </c>
       <c r="F91" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G91">
         <v>33</v>
@@ -6365,13 +6638,13 @@
         <v>63</v>
       </c>
       <c r="I91" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="J91" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M91" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P91">
         <v>0</v>
@@ -6379,25 +6652,28 @@
       <c r="Q91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:17">
+      <c r="R91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
       <c r="A92" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B92" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C92" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D92" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E92">
         <v>91</v>
       </c>
       <c r="F92" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G92">
         <v>33</v>
@@ -6406,13 +6682,13 @@
         <v>63</v>
       </c>
       <c r="I92" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="J92" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M92" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P92">
         <v>0</v>
@@ -6420,25 +6696,28 @@
       <c r="Q92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:17">
+      <c r="R92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
       <c r="A93" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B93" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C93" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D93" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E93">
         <v>92</v>
       </c>
       <c r="F93" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G93">
         <v>33</v>
@@ -6447,13 +6726,13 @@
         <v>63</v>
       </c>
       <c r="I93" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="J93" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M93" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P93">
         <v>0</v>
@@ -6461,25 +6740,28 @@
       <c r="Q93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:17">
+      <c r="R93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
       <c r="A94" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B94" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C94" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D94" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E94">
         <v>93</v>
       </c>
       <c r="F94" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G94">
         <v>33</v>
@@ -6488,13 +6770,13 @@
         <v>63</v>
       </c>
       <c r="I94" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="J94" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M94" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P94">
         <v>0</v>
@@ -6502,25 +6784,28 @@
       <c r="Q94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:17">
+      <c r="R94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
       <c r="A95" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B95" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C95" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D95" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E95">
         <v>94</v>
       </c>
       <c r="F95" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G95">
         <v>33</v>
@@ -6529,13 +6814,13 @@
         <v>63</v>
       </c>
       <c r="I95" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="J95" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M95" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P95">
         <v>0</v>
@@ -6543,25 +6828,28 @@
       <c r="Q95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:17">
+      <c r="R95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
       <c r="A96" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B96" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C96" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D96" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E96">
         <v>95</v>
       </c>
       <c r="F96" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G96">
         <v>33</v>
@@ -6570,13 +6858,13 @@
         <v>63</v>
       </c>
       <c r="I96" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="J96" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M96" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P96">
         <v>0</v>
@@ -6584,25 +6872,28 @@
       <c r="Q96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:17">
+      <c r="R96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
       <c r="A97" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B97" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C97" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D97" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E97">
         <v>96</v>
       </c>
       <c r="F97" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G97">
         <v>34</v>
@@ -6611,13 +6902,13 @@
         <v>64</v>
       </c>
       <c r="I97" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="J97" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="M97" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P97">
         <v>0</v>
@@ -6625,25 +6916,28 @@
       <c r="Q97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:17">
+      <c r="R97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
       <c r="A98" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B98" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C98" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D98" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E98">
         <v>97</v>
       </c>
       <c r="F98" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G98">
         <v>35</v>
@@ -6652,13 +6946,13 @@
         <v>75</v>
       </c>
       <c r="I98" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="J98" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="M98" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P98">
         <v>0</v>
@@ -6666,25 +6960,28 @@
       <c r="Q98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:17">
+      <c r="R98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
       <c r="A99" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B99" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C99" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D99" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E99">
         <v>98</v>
       </c>
       <c r="F99" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G99">
         <v>36</v>
@@ -6693,13 +6990,13 @@
         <v>77</v>
       </c>
       <c r="I99" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="J99" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="M99" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P99">
         <v>0</v>
@@ -6707,25 +7004,28 @@
       <c r="Q99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:17">
+      <c r="R99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
       <c r="A100" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B100" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C100" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D100" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E100">
         <v>99</v>
       </c>
       <c r="F100" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G100">
         <v>37</v>
@@ -6734,13 +7034,13 @@
         <v>78</v>
       </c>
       <c r="I100" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="J100" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="M100" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P100">
         <v>0</v>
@@ -6748,25 +7048,28 @@
       <c r="Q100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:17">
+      <c r="R100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
       <c r="A101" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B101" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C101" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D101" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E101">
         <v>100</v>
       </c>
       <c r="F101" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G101">
         <v>38</v>
@@ -6775,13 +7078,13 @@
         <v>80</v>
       </c>
       <c r="I101" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="J101" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M101" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P101">
         <v>0</v>
@@ -6789,25 +7092,28 @@
       <c r="Q101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:17">
+      <c r="R101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
       <c r="A102" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B102" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C102" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D102" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E102">
         <v>101</v>
       </c>
       <c r="F102" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G102">
         <v>38</v>
@@ -6816,13 +7122,13 @@
         <v>80</v>
       </c>
       <c r="I102" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="J102" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M102" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P102">
         <v>0</v>
@@ -6830,25 +7136,28 @@
       <c r="Q102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:17">
+      <c r="R102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
       <c r="A103" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B103" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C103" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D103" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E103">
         <v>102</v>
       </c>
       <c r="F103" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G103">
         <v>38</v>
@@ -6857,13 +7166,13 @@
         <v>80</v>
       </c>
       <c r="I103" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="J103" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M103" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P103">
         <v>0</v>
@@ -6871,25 +7180,28 @@
       <c r="Q103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:17">
+      <c r="R103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
       <c r="A104" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B104" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C104" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D104" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E104">
         <v>103</v>
       </c>
       <c r="F104" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G104">
         <v>38</v>
@@ -6898,13 +7210,13 @@
         <v>80</v>
       </c>
       <c r="I104" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="J104" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M104" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P104">
         <v>0</v>
@@ -6912,25 +7224,28 @@
       <c r="Q104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:17">
+      <c r="R104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
       <c r="A105" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B105" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C105" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D105" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E105">
         <v>104</v>
       </c>
       <c r="F105" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G105">
         <v>38</v>
@@ -6939,13 +7254,13 @@
         <v>80</v>
       </c>
       <c r="I105" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="J105" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M105" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P105">
         <v>0</v>
@@ -6953,25 +7268,28 @@
       <c r="Q105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:17">
+      <c r="R105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
       <c r="A106" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B106" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C106" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D106" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G106">
         <v>38</v>
@@ -6980,13 +7298,13 @@
         <v>80</v>
       </c>
       <c r="I106" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="J106" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M106" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P106">
         <v>0</v>
@@ -6994,25 +7312,28 @@
       <c r="Q106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:17">
+      <c r="R106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
       <c r="A107" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B107" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C107" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D107" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E107">
         <v>106</v>
       </c>
       <c r="F107" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G107">
         <v>38</v>
@@ -7021,13 +7342,13 @@
         <v>80</v>
       </c>
       <c r="I107" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="J107" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M107" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P107">
         <v>0</v>
@@ -7035,25 +7356,28 @@
       <c r="Q107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:17">
+      <c r="R107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
       <c r="A108" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B108" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C108" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D108" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E108">
         <v>107</v>
       </c>
       <c r="F108" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G108">
         <v>38</v>
@@ -7062,13 +7386,13 @@
         <v>80</v>
       </c>
       <c r="I108" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="J108" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M108" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P108">
         <v>0</v>
@@ -7076,25 +7400,28 @@
       <c r="Q108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:17">
+      <c r="R108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
       <c r="A109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B109" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C109" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D109" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E109">
         <v>108</v>
       </c>
       <c r="F109" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G109">
         <v>39</v>
@@ -7103,13 +7430,13 @@
         <v>81</v>
       </c>
       <c r="I109" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="J109" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="M109" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P109">
         <v>0</v>
@@ -7117,25 +7444,28 @@
       <c r="Q109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:17">
+      <c r="R109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
       <c r="A110" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B110" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C110" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D110" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E110">
         <v>109</v>
       </c>
       <c r="F110" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G110">
         <v>39</v>
@@ -7144,13 +7474,13 @@
         <v>81</v>
       </c>
       <c r="I110" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="J110" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="M110" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P110">
         <v>0</v>
@@ -7158,25 +7488,28 @@
       <c r="Q110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:17">
+      <c r="R110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18">
       <c r="A111" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B111" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C111" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D111" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E111">
         <v>110</v>
       </c>
       <c r="F111" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G111">
         <v>39</v>
@@ -7185,13 +7518,13 @@
         <v>81</v>
       </c>
       <c r="I111" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="J111" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="M111" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P111">
         <v>0</v>
@@ -7199,25 +7532,28 @@
       <c r="Q111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:17">
+      <c r="R111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
       <c r="A112" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B112" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C112" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D112" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E112">
         <v>111</v>
       </c>
       <c r="F112" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G112">
         <v>40</v>
@@ -7226,13 +7562,13 @@
         <v>82</v>
       </c>
       <c r="I112" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="J112" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="M112" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P112">
         <v>0</v>
@@ -7240,25 +7576,28 @@
       <c r="Q112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:17">
+      <c r="R112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18">
       <c r="A113" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B113" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C113" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D113" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E113">
         <v>112</v>
       </c>
       <c r="F113" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G113">
         <v>41</v>
@@ -7267,13 +7606,13 @@
         <v>83</v>
       </c>
       <c r="I113" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="J113" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="M113" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P113">
         <v>0</v>
@@ -7281,25 +7620,28 @@
       <c r="Q113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:17">
+      <c r="R113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18">
       <c r="A114" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B114" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C114" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D114" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E114">
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G114">
         <v>42</v>
@@ -7308,13 +7650,13 @@
         <v>84</v>
       </c>
       <c r="I114" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="J114" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="M114" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P114">
         <v>0</v>
@@ -7322,25 +7664,28 @@
       <c r="Q114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:17">
+      <c r="R114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18">
       <c r="A115" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B115" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C115" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D115" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E115">
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G115">
         <v>44</v>
@@ -7349,13 +7694,13 @@
         <v>87</v>
       </c>
       <c r="I115" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="J115" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="M115" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P115">
         <v>0</v>
@@ -7363,25 +7708,28 @@
       <c r="Q115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:17">
+      <c r="R115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18">
       <c r="A116" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B116" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C116" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D116" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G116">
         <v>45</v>
@@ -7390,13 +7738,13 @@
         <v>88</v>
       </c>
       <c r="I116" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="J116" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M116" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="P116">
         <v>0</v>
@@ -7404,25 +7752,28 @@
       <c r="Q116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:17">
+      <c r="R116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18">
       <c r="A117" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B117" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C117" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D117" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G117">
         <v>45</v>
@@ -7431,13 +7782,13 @@
         <v>88</v>
       </c>
       <c r="I117" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="J117" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M117" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="P117">
         <v>0</v>
@@ -7445,25 +7796,28 @@
       <c r="Q117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:17">
+      <c r="R117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18">
       <c r="A118" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B118" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C118" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D118" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E118">
         <v>117</v>
       </c>
       <c r="F118" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G118">
         <v>46</v>
@@ -7472,13 +7826,13 @@
         <v>90</v>
       </c>
       <c r="I118" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J118" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M118" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P118">
         <v>0</v>
@@ -7486,25 +7840,28 @@
       <c r="Q118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:17">
+      <c r="R118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18">
       <c r="A119" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B119" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C119" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D119" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E119">
         <v>118</v>
       </c>
       <c r="F119" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G119">
         <v>46</v>
@@ -7513,13 +7870,13 @@
         <v>90</v>
       </c>
       <c r="I119" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J119" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M119" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P119">
         <v>0</v>
@@ -7527,25 +7884,28 @@
       <c r="Q119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:17">
+      <c r="R119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18">
       <c r="A120" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B120" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C120" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D120" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E120">
         <v>119</v>
       </c>
       <c r="F120" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G120">
         <v>46</v>
@@ -7554,13 +7914,13 @@
         <v>90</v>
       </c>
       <c r="I120" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J120" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M120" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P120">
         <v>0</v>
@@ -7568,25 +7928,28 @@
       <c r="Q120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:17">
+      <c r="R120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18">
       <c r="A121" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B121" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C121" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D121" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E121">
         <v>120</v>
       </c>
       <c r="F121" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G121">
         <v>46</v>
@@ -7595,13 +7958,13 @@
         <v>90</v>
       </c>
       <c r="I121" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J121" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M121" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P121">
         <v>0</v>
@@ -7609,25 +7972,28 @@
       <c r="Q121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:17">
+      <c r="R121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18">
       <c r="A122" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B122" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C122" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D122" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E122">
         <v>121</v>
       </c>
       <c r="F122" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G122">
         <v>46</v>
@@ -7636,13 +8002,13 @@
         <v>90</v>
       </c>
       <c r="I122" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J122" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M122" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P122">
         <v>0</v>
@@ -7650,25 +8016,28 @@
       <c r="Q122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:17">
+      <c r="R122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18">
       <c r="A123" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B123" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C123" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D123" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E123">
         <v>122</v>
       </c>
       <c r="F123" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G123">
         <v>48</v>
@@ -7677,13 +8046,13 @@
         <v>92</v>
       </c>
       <c r="I123" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="J123" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="M123" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P123">
         <v>0</v>
@@ -7691,25 +8060,28 @@
       <c r="Q123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:17">
+      <c r="R123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18">
       <c r="A124" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B124" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C124" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D124" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E124">
         <v>123</v>
       </c>
       <c r="F124" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G124">
         <v>49</v>
@@ -7718,13 +8090,13 @@
         <v>93</v>
       </c>
       <c r="I124" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="J124" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="M124" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P124">
         <v>0</v>
@@ -7732,25 +8104,28 @@
       <c r="Q124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:17">
+      <c r="R124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18">
       <c r="A125" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B125" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C125" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D125" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E125">
         <v>124</v>
       </c>
       <c r="F125" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G125">
         <v>49</v>
@@ -7759,13 +8134,13 @@
         <v>93</v>
       </c>
       <c r="I125" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="J125" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="M125" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P125">
         <v>0</v>
@@ -7773,25 +8148,28 @@
       <c r="Q125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:17">
+      <c r="R125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18">
       <c r="A126" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B126" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C126" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D126" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E126">
         <v>125</v>
       </c>
       <c r="F126" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G126">
         <v>49</v>
@@ -7800,13 +8178,13 @@
         <v>93</v>
       </c>
       <c r="I126" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="J126" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="M126" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P126">
         <v>0</v>
@@ -7814,25 +8192,28 @@
       <c r="Q126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:17">
+      <c r="R126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18">
       <c r="A127" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B127" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C127" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D127" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E127">
         <v>126</v>
       </c>
       <c r="F127" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G127">
         <v>49</v>
@@ -7841,13 +8222,13 @@
         <v>93</v>
       </c>
       <c r="I127" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="J127" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="M127" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P127">
         <v>0</v>
@@ -7855,25 +8236,28 @@
       <c r="Q127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:17">
+      <c r="R127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18">
       <c r="A128" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B128" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C128" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D128" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E128">
         <v>127</v>
       </c>
       <c r="F128" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G128">
         <v>49</v>
@@ -7882,13 +8266,13 @@
         <v>93</v>
       </c>
       <c r="I128" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="J128" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="M128" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P128">
         <v>0</v>
@@ -7896,25 +8280,28 @@
       <c r="Q128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:17">
+      <c r="R128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18">
       <c r="A129" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B129" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C129" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D129" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E129">
         <v>128</v>
       </c>
       <c r="F129" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G129">
         <v>50</v>
@@ -7923,13 +8310,13 @@
         <v>94</v>
       </c>
       <c r="I129" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="J129" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M129" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P129">
         <v>0</v>
@@ -7937,25 +8324,28 @@
       <c r="Q129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:17">
+      <c r="R129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18">
       <c r="A130" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B130" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C130" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D130" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E130">
         <v>129</v>
       </c>
       <c r="F130" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G130">
         <v>50</v>
@@ -7964,13 +8354,13 @@
         <v>94</v>
       </c>
       <c r="I130" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="J130" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M130" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P130">
         <v>0</v>
@@ -7978,22 +8368,25 @@
       <c r="Q130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:17">
+      <c r="R130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18">
       <c r="B131" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C131" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D131" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E131">
         <v>130</v>
       </c>
       <c r="F131" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G131">
         <v>50</v>
@@ -8002,13 +8395,13 @@
         <v>94</v>
       </c>
       <c r="I131" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="J131" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M131" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P131">
         <v>0</v>
@@ -8016,22 +8409,25 @@
       <c r="Q131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:17">
+      <c r="R131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18">
       <c r="B132" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C132" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D132" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E132">
         <v>131</v>
       </c>
       <c r="F132" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G132">
         <v>50</v>
@@ -8040,13 +8436,13 @@
         <v>94</v>
       </c>
       <c r="I132" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="J132" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M132" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P132">
         <v>0</v>
@@ -8054,22 +8450,25 @@
       <c r="Q132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:17">
+      <c r="R132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18">
       <c r="B133" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C133" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D133" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E133">
         <v>132</v>
       </c>
       <c r="F133" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G133">
         <v>50</v>
@@ -8078,13 +8477,13 @@
         <v>94</v>
       </c>
       <c r="I133" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="J133" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M133" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P133">
         <v>0</v>
@@ -8092,22 +8491,25 @@
       <c r="Q133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:17">
+      <c r="R133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18">
       <c r="B134" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C134" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D134" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E134">
         <v>133</v>
       </c>
       <c r="F134" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G134">
         <v>50</v>
@@ -8116,13 +8518,13 @@
         <v>94</v>
       </c>
       <c r="I134" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="J134" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M134" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P134">
         <v>0</v>
@@ -8130,22 +8532,25 @@
       <c r="Q134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:17">
+      <c r="R134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18">
       <c r="B135" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C135" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D135" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E135">
         <v>134</v>
       </c>
       <c r="F135" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G135">
         <v>50</v>
@@ -8154,13 +8559,13 @@
         <v>94</v>
       </c>
       <c r="I135" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="J135" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M135" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P135">
         <v>0</v>
@@ -8168,25 +8573,28 @@
       <c r="Q135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:17">
+      <c r="R135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18">
       <c r="A136" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B136" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C136" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D136" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E136">
         <v>135</v>
       </c>
       <c r="F136" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G136">
         <v>51</v>
@@ -8195,13 +8603,13 @@
         <v>95</v>
       </c>
       <c r="I136" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="J136" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M136" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P136">
         <v>0</v>
@@ -8209,25 +8617,28 @@
       <c r="Q136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:17">
+      <c r="R136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18">
       <c r="A137" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B137" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C137" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D137" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E137">
         <v>136</v>
       </c>
       <c r="F137" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G137">
         <v>51</v>
@@ -8236,13 +8647,13 @@
         <v>95</v>
       </c>
       <c r="I137" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="J137" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M137" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P137">
         <v>0</v>
@@ -8250,25 +8661,28 @@
       <c r="Q137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:17">
+      <c r="R137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18">
       <c r="A138" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B138" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C138" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D138" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E138">
         <v>137</v>
       </c>
       <c r="F138" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G138">
         <v>51</v>
@@ -8277,13 +8691,13 @@
         <v>95</v>
       </c>
       <c r="I138" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="J138" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M138" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P138">
         <v>0</v>
@@ -8291,25 +8705,28 @@
       <c r="Q138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:17">
+      <c r="R138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18">
       <c r="A139" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B139" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C139" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D139" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E139">
         <v>138</v>
       </c>
       <c r="F139" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G139">
         <v>51</v>
@@ -8318,13 +8735,13 @@
         <v>95</v>
       </c>
       <c r="I139" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="J139" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M139" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P139">
         <v>0</v>
@@ -8332,25 +8749,28 @@
       <c r="Q139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:17">
+      <c r="R139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18">
       <c r="A140" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B140" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C140" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D140" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E140">
         <v>139</v>
       </c>
       <c r="F140" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G140">
         <v>51</v>
@@ -8359,13 +8779,13 @@
         <v>95</v>
       </c>
       <c r="I140" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="J140" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M140" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P140">
         <v>0</v>
@@ -8373,25 +8793,28 @@
       <c r="Q140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:17">
+      <c r="R140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18">
       <c r="A141" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B141" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C141" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D141" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E141">
         <v>140</v>
       </c>
       <c r="F141" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G141">
         <v>51</v>
@@ -8400,13 +8823,13 @@
         <v>95</v>
       </c>
       <c r="I141" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="J141" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M141" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P141">
         <v>0</v>
@@ -8414,25 +8837,28 @@
       <c r="Q141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:17">
+      <c r="R141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18">
       <c r="A142" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B142" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C142" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D142" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E142">
         <v>141</v>
       </c>
       <c r="F142" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G142">
         <v>51</v>
@@ -8441,13 +8867,13 @@
         <v>95</v>
       </c>
       <c r="I142" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="J142" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M142" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P142">
         <v>0</v>
@@ -8455,25 +8881,28 @@
       <c r="Q142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:17">
+      <c r="R142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18">
       <c r="A143" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B143" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C143" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D143" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E143">
         <v>142</v>
       </c>
       <c r="F143" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G143">
         <v>51</v>
@@ -8482,13 +8911,13 @@
         <v>95</v>
       </c>
       <c r="I143" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="J143" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M143" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P143">
         <v>0</v>
@@ -8496,25 +8925,28 @@
       <c r="Q143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:17">
+      <c r="R143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18">
       <c r="A144" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B144" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C144" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D144" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E144">
         <v>143</v>
       </c>
       <c r="F144" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G144">
         <v>51</v>
@@ -8523,13 +8955,13 @@
         <v>95</v>
       </c>
       <c r="I144" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="J144" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M144" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P144">
         <v>0</v>
@@ -8537,25 +8969,28 @@
       <c r="Q144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:17">
+      <c r="R144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18">
       <c r="A145" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B145" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C145" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D145" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E145">
         <v>144</v>
       </c>
       <c r="F145" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G145">
         <v>51</v>
@@ -8564,13 +8999,13 @@
         <v>95</v>
       </c>
       <c r="I145" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="J145" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M145" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P145">
         <v>0</v>
@@ -8578,25 +9013,28 @@
       <c r="Q145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:17">
+      <c r="R145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18">
       <c r="A146" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B146" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C146" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D146" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E146">
         <v>145</v>
       </c>
       <c r="F146" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G146">
         <v>51</v>
@@ -8605,13 +9043,13 @@
         <v>95</v>
       </c>
       <c r="I146" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="J146" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M146" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P146">
         <v>0</v>
@@ -8619,25 +9057,28 @@
       <c r="Q146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:17">
+      <c r="R146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18">
       <c r="A147" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B147" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C147" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D147" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E147">
         <v>146</v>
       </c>
       <c r="F147" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G147">
         <v>51</v>
@@ -8646,13 +9087,13 @@
         <v>95</v>
       </c>
       <c r="I147" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="J147" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M147" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P147">
         <v>0</v>
@@ -8660,25 +9101,28 @@
       <c r="Q147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:17">
+      <c r="R147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18">
       <c r="A148" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B148" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C148" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D148" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E148">
         <v>147</v>
       </c>
       <c r="F148" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G148">
         <v>51</v>
@@ -8687,13 +9131,13 @@
         <v>95</v>
       </c>
       <c r="I148" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="J148" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M148" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P148">
         <v>0</v>
@@ -8701,25 +9145,28 @@
       <c r="Q148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:17">
+      <c r="R148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18">
       <c r="A149" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B149" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C149" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D149" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E149">
         <v>148</v>
       </c>
       <c r="F149" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G149">
         <v>53</v>
@@ -8728,13 +9175,13 @@
         <v>98</v>
       </c>
       <c r="I149" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="J149" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="M149" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="P149">
         <v>0</v>
@@ -8742,25 +9189,28 @@
       <c r="Q149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:17">
+      <c r="R149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18">
       <c r="A150" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B150" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C150" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D150" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E150">
         <v>149</v>
       </c>
       <c r="F150" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G150">
         <v>54</v>
@@ -8769,13 +9219,13 @@
         <v>99</v>
       </c>
       <c r="I150" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="J150" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="M150" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P150">
         <v>0</v>
@@ -8783,25 +9233,28 @@
       <c r="Q150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:17">
+      <c r="R150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18">
       <c r="A151" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B151" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C151" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D151" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E151">
         <v>150</v>
       </c>
       <c r="F151" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G151">
         <v>54</v>
@@ -8810,13 +9263,13 @@
         <v>99</v>
       </c>
       <c r="I151" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="J151" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="M151" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P151">
         <v>0</v>
@@ -8824,25 +9277,28 @@
       <c r="Q151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:17">
+      <c r="R151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18">
       <c r="A152" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B152" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C152" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D152" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E152">
         <v>151</v>
       </c>
       <c r="F152" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G152">
         <v>54</v>
@@ -8851,13 +9307,13 @@
         <v>99</v>
       </c>
       <c r="I152" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="J152" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="M152" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P152">
         <v>0</v>
@@ -8865,25 +9321,28 @@
       <c r="Q152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:17">
+      <c r="R152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18">
       <c r="A153" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C153" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D153" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E153">
         <v>152</v>
       </c>
       <c r="F153" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G153">
         <v>55</v>
@@ -8892,13 +9351,13 @@
         <v>100</v>
       </c>
       <c r="I153" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="J153" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="M153" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P153">
         <v>0</v>
@@ -8906,25 +9365,28 @@
       <c r="Q153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:17">
+      <c r="R153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18">
       <c r="A154" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C154" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D154" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E154">
         <v>153</v>
       </c>
       <c r="F154" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G154">
         <v>56</v>
@@ -8933,13 +9395,13 @@
         <v>101</v>
       </c>
       <c r="I154" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J154" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="M154" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P154">
         <v>0</v>
@@ -8947,25 +9409,28 @@
       <c r="Q154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:17">
+      <c r="R154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18">
       <c r="A155" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C155" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D155" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E155">
         <v>154</v>
       </c>
       <c r="F155" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G155">
         <v>57</v>
@@ -8974,13 +9439,13 @@
         <v>102</v>
       </c>
       <c r="I155" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="J155" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="M155" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P155">
         <v>0</v>
@@ -8988,25 +9453,28 @@
       <c r="Q155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:17">
+      <c r="R155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18">
       <c r="A156" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C156" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D156" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E156">
         <v>155</v>
       </c>
       <c r="F156" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G156">
         <v>59</v>
@@ -9015,13 +9483,13 @@
         <v>104</v>
       </c>
       <c r="I156" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="J156" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="M156" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P156">
         <v>0</v>
@@ -9029,25 +9497,28 @@
       <c r="Q156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:17">
+      <c r="R156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18">
       <c r="A157" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C157" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D157" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E157">
         <v>156</v>
       </c>
       <c r="F157" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G157">
         <v>60</v>
@@ -9056,13 +9527,13 @@
         <v>105</v>
       </c>
       <c r="I157" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="J157" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="M157" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P157">
         <v>0</v>
@@ -9070,25 +9541,28 @@
       <c r="Q157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:17">
+      <c r="R157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18">
       <c r="A158" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D158" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E158">
         <v>157</v>
       </c>
       <c r="F158" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G158">
         <v>61</v>
@@ -9097,13 +9571,13 @@
         <v>106</v>
       </c>
       <c r="I158" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="J158" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="M158" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P158">
         <v>0</v>
@@ -9111,25 +9585,28 @@
       <c r="Q158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:17">
+      <c r="R158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18">
       <c r="A159" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B159" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C159" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D159" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E159">
         <v>158</v>
       </c>
       <c r="F159" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G159">
         <v>64</v>
@@ -9138,13 +9615,13 @@
         <v>111</v>
       </c>
       <c r="I159" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="J159" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="M159" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P159">
         <v>0</v>
@@ -9152,25 +9629,28 @@
       <c r="Q159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:17">
+      <c r="R159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18">
       <c r="A160" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B160" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C160" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D160" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E160">
         <v>159</v>
       </c>
       <c r="F160" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G160">
         <v>64</v>
@@ -9179,13 +9659,13 @@
         <v>111</v>
       </c>
       <c r="I160" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="J160" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="M160" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P160">
         <v>0</v>
@@ -9193,25 +9673,28 @@
       <c r="Q160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:17">
+      <c r="R160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C161" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D161" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E161">
         <v>160</v>
       </c>
       <c r="F161" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G161">
         <v>64</v>
@@ -9220,13 +9703,13 @@
         <v>111</v>
       </c>
       <c r="I161" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="J161" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="M161" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P161">
         <v>0</v>
@@ -9234,25 +9717,28 @@
       <c r="Q161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:17">
+      <c r="R161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18">
       <c r="A162" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B162" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C162" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D162" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E162">
         <v>161</v>
       </c>
       <c r="F162" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G162">
         <v>65</v>
@@ -9261,13 +9747,13 @@
         <v>113</v>
       </c>
       <c r="I162" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="J162" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="M162" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P162">
         <v>0</v>
@@ -9275,25 +9761,28 @@
       <c r="Q162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:17">
+      <c r="R162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18">
       <c r="A163" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C163" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D163" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E163">
         <v>162</v>
       </c>
       <c r="F163" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G163">
         <v>65</v>
@@ -9302,13 +9791,13 @@
         <v>113</v>
       </c>
       <c r="I163" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="J163" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="M163" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P163">
         <v>0</v>
@@ -9316,25 +9805,28 @@
       <c r="Q163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:17">
+      <c r="R163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18">
       <c r="A164" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C164" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D164" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E164">
         <v>163</v>
       </c>
       <c r="F164" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G164">
         <v>65</v>
@@ -9343,13 +9835,13 @@
         <v>113</v>
       </c>
       <c r="I164" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="J164" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="M164" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P164">
         <v>0</v>
@@ -9357,25 +9849,28 @@
       <c r="Q164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:17">
+      <c r="R164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18">
       <c r="A165" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C165" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D165" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E165">
         <v>164</v>
       </c>
       <c r="F165" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G165">
         <v>67</v>
@@ -9384,13 +9879,13 @@
         <v>115</v>
       </c>
       <c r="I165" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J165" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="M165" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="P165">
         <v>0</v>
@@ -9398,25 +9893,28 @@
       <c r="Q165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:17">
+      <c r="R165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18">
       <c r="A166" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C166" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D166" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E166">
         <v>165</v>
       </c>
       <c r="F166" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G166">
         <v>67</v>
@@ -9425,13 +9923,13 @@
         <v>115</v>
       </c>
       <c r="I166" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J166" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="M166" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="P166">
         <v>0</v>
@@ -9439,25 +9937,28 @@
       <c r="Q166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:17">
+      <c r="R166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18">
       <c r="A167" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C167" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D167" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E167">
         <v>166</v>
       </c>
       <c r="F167" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G167">
         <v>68</v>
@@ -9466,13 +9967,13 @@
         <v>117</v>
       </c>
       <c r="I167" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="J167" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="M167" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P167">
         <v>0</v>
@@ -9480,25 +9981,28 @@
       <c r="Q167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:17">
+      <c r="R167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18">
       <c r="A168" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C168" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D168" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E168">
         <v>167</v>
       </c>
       <c r="F168" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G168">
         <v>69</v>
@@ -9507,13 +10011,13 @@
         <v>118</v>
       </c>
       <c r="I168" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="J168" s="2">
         <v>45058.12305555555</v>
       </c>
       <c r="M168" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P168">
         <v>0</v>
@@ -9521,25 +10025,28 @@
       <c r="Q168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:17">
+      <c r="R168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18">
       <c r="A169" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C169" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D169" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E169">
         <v>168</v>
       </c>
       <c r="F169" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G169">
         <v>69</v>
@@ -9548,13 +10055,13 @@
         <v>118</v>
       </c>
       <c r="I169" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="J169" s="2">
         <v>45058.12305555555</v>
       </c>
       <c r="M169" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P169">
         <v>0</v>
@@ -9562,25 +10069,28 @@
       <c r="Q169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:17">
+      <c r="R169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18">
       <c r="A170" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C170" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D170" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E170">
         <v>169</v>
       </c>
       <c r="F170" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G170">
         <v>70</v>
@@ -9589,18 +10099,21 @@
         <v>119</v>
       </c>
       <c r="I170" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="J170" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M170" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P170">
         <v>0</v>
       </c>
       <c r="Q170">
+        <v>0</v>
+      </c>
+      <c r="R170">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p32.xlsx
+++ b/files/separadas/repeat_p32.xlsx
@@ -6999,13 +6999,13 @@
         <v>693</v>
       </c>
       <c r="P99">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R99">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="100" spans="1:18">

--- a/files/separadas/repeat_p32.xlsx
+++ b/files/separadas/repeat_p32.xlsx
@@ -6999,13 +6999,13 @@
         <v>693</v>
       </c>
       <c r="P99">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R99">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:18">

--- a/files/separadas/repeat_p32.xlsx
+++ b/files/separadas/repeat_p32.xlsx
@@ -3532,13 +3532,13 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="50">
@@ -3594,13 +3594,13 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="51">
@@ -3656,13 +3656,13 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="R51" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="52">

--- a/files/separadas/repeat_p32.xlsx
+++ b/files/separadas/repeat_p32.xlsx
@@ -1021,13 +1021,13 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">

--- a/files/separadas/repeat_p32.xlsx
+++ b/files/separadas/repeat_p32.xlsx
@@ -1021,13 +1021,13 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>20</v>
+        <v>0.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>20</v>
+        <v>0.9</v>
       </c>
       <c r="R9" t="n">
-        <v>20</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="10">
@@ -1085,13 +1085,13 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="11">
@@ -1148,13 +1148,13 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="12">
@@ -1213,13 +1213,13 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="13">
@@ -1277,13 +1277,13 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="14">

--- a/files/separadas/repeat_p32.xlsx
+++ b/files/separadas/repeat_p32.xlsx
@@ -1257,7 +1257,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="15">
@@ -1313,7 +1313,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="16">
@@ -1369,7 +1369,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="17">
@@ -1427,7 +1427,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="18">
@@ -4051,7 +4051,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="64">
@@ -6828,7 +6828,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="113">
@@ -9003,7 +9003,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="151">
@@ -9059,7 +9059,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="152">
@@ -9115,7 +9115,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="153">
@@ -9963,7 +9963,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr"/>
       <c r="P167" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="168">
